--- a/config/covid-19/forms/contact/PLACE_TYPE-create.xlsx
+++ b/config/covid-19/forms/contact/PLACE_TYPE-create.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="survey" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="choices" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="settings" sheetId="3" r:id="rId6"/>
+    <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjoid+fSX0Qkhf0uQyogBH92gIeJg=="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="363">
   <si>
     <t>type</t>
   </si>
@@ -98,7 +95,7 @@
     <t>notes</t>
   </si>
   <si>
-    <t>begin group</t>
+    <t xml:space="preserve">begin group</t>
   </si>
   <si>
     <t>inputs</t>
@@ -116,19 +113,19 @@
     <t>contact_id</t>
   </si>
   <si>
-    <t>Contact ID of the logged in user</t>
+    <t xml:space="preserve">Contact ID of the logged in user</t>
   </si>
   <si>
     <t>facility_id</t>
   </si>
   <si>
-    <t>Place ID of the logged in user</t>
-  </si>
-  <si>
-    <t>Name of the logged in user</t>
-  </si>
-  <si>
-    <t>end group</t>
+    <t xml:space="preserve">Place ID of the logged in user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of the logged in user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end group</t>
   </si>
   <si>
     <t>init</t>
@@ -137,28 +134,28 @@
     <t>field-list</t>
   </si>
   <si>
-    <t>select_one contact</t>
+    <t xml:space="preserve">select_one contact</t>
   </si>
   <si>
     <t>create_new_person</t>
   </si>
   <si>
-    <t>Set the primary contact</t>
-  </si>
-  <si>
-    <t>प्राथमिक कॉंटॅक्ट चुनें</t>
-  </si>
-  <si>
-    <t>Ditetapkan Sebagai Kontak Utama</t>
-  </si>
-  <si>
-    <t>Weka mwasiliwa mkuu</t>
-  </si>
-  <si>
-    <t>प्राथमिक सम्पर्क व्यक्ति</t>
-  </si>
-  <si>
-    <t>Contact primaire</t>
+    <t xml:space="preserve">Set the primary contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">प्राथमिक कॉंटॅक्ट चुनें</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ditetapkan Sebagai Kontak Utama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weka mwasiliwa mkuu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">प्राथमिक सम्पर्क व्यक्ति</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact primaire</t>
   </si>
   <si>
     <t>yes</t>
@@ -173,19 +170,19 @@
     <t>select_person</t>
   </si>
   <si>
-    <t>Select the primary contact</t>
-  </si>
-  <si>
-    <t>Pilih Kontak Utama</t>
-  </si>
-  <si>
-    <t>Chagua Mwasiliwa mkuu</t>
-  </si>
-  <si>
-    <t>प्राथमिक सम्पर्क व्यक्ति छान्नुहोस्</t>
-  </si>
-  <si>
-    <t>Choisisser le contact primaire</t>
+    <t xml:space="preserve">Select the primary contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilih Kontak Utama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chagua Mwasiliwa mkuu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">प्राथमिक सम्पर्क व्यक्ति छान्नुहोस्</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choisisser le contact primaire</t>
   </si>
   <si>
     <t>selected(${create_new_person},'old_person')</t>
@@ -203,10 +200,10 @@
     <t>contact_name</t>
   </si>
   <si>
-    <t>coalesce(../../contact/name, ../name)</t>
-  </si>
-  <si>
-    <t>select_one translate_name_label</t>
+    <t xml:space="preserve">coalesce(../../contact/name, ../name)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one translate_name_label</t>
   </si>
   <si>
     <t>custom_place_name_label_translator</t>
@@ -230,34 +227,34 @@
     <t>${custom_place_name_label}</t>
   </si>
   <si>
-    <t>selected(${create_new_person},'none') or selected(${is_name_generated}, 'false')  or selected(${is_name_generated}, 'no')</t>
-  </si>
-  <si>
-    <t>Standalone question only if no contact is selected, so show label accordingly</t>
-  </si>
-  <si>
-    <t>select_one place_type</t>
+    <t xml:space="preserve">selected(${create_new_person},'none') or selected(${is_name_generated}, 'false')  or selected(${is_name_generated}, 'no')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standalone question only if no contact is selected, so show label accordingly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one place_type</t>
   </si>
   <si>
     <t>place_type</t>
   </si>
   <si>
-    <t>Enter the name of this place</t>
-  </si>
-  <si>
-    <t>इस स्थान का नाम दर्ज करें</t>
-  </si>
-  <si>
-    <t>Masukkan nama tempat ini</t>
-  </si>
-  <si>
-    <t>Jaza jina la eneo hii</t>
-  </si>
-  <si>
-    <t>यस स्थानको नाम लेख्नुहोस्</t>
-  </si>
-  <si>
-    <t>Nom de l'endroit</t>
+    <t xml:space="preserve">Enter the name of this place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">इस स्थान का नाम दर्ज करें</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masukkan nama tempat ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaza jina la eneo hii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">यस स्थानको नाम लेख्नुहोस्</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom de l'endroit</t>
   </si>
   <si>
     <t>PLACE_TYPE</t>
@@ -269,7 +266,7 @@
     <t>jr:choice-name(${place_type},'${place_type}')</t>
   </si>
   <si>
-    <t>select_one generated_name</t>
+    <t xml:space="preserve">select_one generated_name</t>
   </si>
   <si>
     <t>generated_name</t>
@@ -284,19 +281,19 @@
     <t>contact</t>
   </si>
   <si>
-    <t>New person</t>
-  </si>
-  <si>
-    <t>नया व्यक्ति</t>
-  </si>
-  <si>
-    <t>Orang Baru</t>
-  </si>
-  <si>
-    <t>Mtu Mpya</t>
-  </si>
-  <si>
-    <t>Nouvelle personne</t>
+    <t xml:space="preserve">New person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">नया व्यक्ति</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orang Baru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mtu Mpya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouvelle personne</t>
   </si>
   <si>
     <t>selected(${create_new_person},'new_person')</t>
@@ -314,7 +311,7 @@
     <t>first_name</t>
   </si>
   <si>
-    <t>First name</t>
+    <t xml:space="preserve">First name</t>
   </si>
   <si>
     <t>last_name</t>
@@ -323,7 +320,7 @@
     <t xml:space="preserve">Last name </t>
   </si>
   <si>
-    <t>concat(${first_name}, ' ', ${last_name})</t>
+    <t xml:space="preserve">concat(${first_name}, ' ', ${last_name})</t>
   </si>
   <si>
     <t>date_of_birth</t>
@@ -353,13 +350,13 @@
     <t>not(selected(../dob_method,'approx'))</t>
   </si>
   <si>
-    <t>floor(decimal-date-time(.)) &lt;= floor(decimal-date-time(today()))</t>
-  </si>
-  <si>
-    <t>Date must be before today</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
+    <t xml:space="preserve">floor(decimal-date-time(.)) &lt;= floor(decimal-date-time(today()))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date must be before today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of Birth</t>
   </si>
   <si>
     <t>note</t>
@@ -383,10 +380,10 @@
     <t>Years</t>
   </si>
   <si>
-    <t>. &gt;= 0 and . &lt;= 130</t>
-  </si>
-  <si>
-    <t>Age must be between 0 and 130</t>
+    <t xml:space="preserve">. &gt;= 0 and . &lt;= 130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age must be between 0 and 130</t>
   </si>
   <si>
     <t>age_months</t>
@@ -395,13 +392,13 @@
     <t>Months</t>
   </si>
   <si>
-    <t>. &gt;= 0 and . &lt;= 11</t>
-  </si>
-  <si>
-    <t>Months must between 0 and 11</t>
-  </si>
-  <si>
-    <t>select_multiple select_dob_method</t>
+    <t xml:space="preserve">. &gt;= 0 and . &lt;= 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Months must between 0 and 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple select_dob_method</t>
   </si>
   <si>
     <t>dob_method</t>
@@ -416,13 +413,13 @@
     <t>ephemeral_months</t>
   </si>
   <si>
-    <t>if(format-date-time(today(),"%m") - ../age_months &lt; 0, format-date-time(today(),"%m") - ../age_months + 12, format-date-time(today(),"%m") - ../age_months)</t>
+    <t xml:space="preserve">if(format-date-time(today(),"%m") - coalesce(../age_months, 0) &lt; 0, format-date-time(today(),"%m") - coalesce(../age_months, 0) + 12, format-date-time(today(),"%m") - coalesce(../age_months, 0))</t>
   </si>
   <si>
     <t>ephemeral_years</t>
   </si>
   <si>
-    <t>if(format-date-time(today(),"%m") - ../age_months &lt; 0, format-date-time(today(),"%Y") - ../age_years - 1, format-date-time(today(),"%Y") -../age_years)</t>
+    <t xml:space="preserve">if(format-date-time(today(),"%m") - coalesce(../age_months, 0) &lt; 0, format-date-time(today(),"%Y") - ../age_years - 1, format-date-time(today(),"%Y") -../age_years)</t>
   </si>
   <si>
     <t>dob_approx</t>
@@ -431,13 +428,13 @@
     <t>DOB</t>
   </si>
   <si>
-    <t>concat(string(${ephemeral_years}),'-',if(${ephemeral_months}&lt;10, concat('0',string(${ephemeral_months})), ${ephemeral_months}),'-',string(format-date-time(today(), "%d")))</t>
+    <t xml:space="preserve">concat(string(${ephemeral_years}),'-',if(${ephemeral_months}&lt;10, concat('0',string(${ephemeral_months})), ${ephemeral_months}),'-',string(format-date-time(today(), "%d")))</t>
   </si>
   <si>
     <t>dob_raw</t>
   </si>
   <si>
-    <t>if(not(selected( ../dob_method,'approx')), 
+    <t xml:space="preserve">if(not(selected( ../dob_method,'approx')), 
 ../dob_calendar,
 ../dob_approx)</t>
   </si>
@@ -445,7 +442,7 @@
     <t>dob_iso</t>
   </si>
   <si>
-    <t>Date of birth</t>
+    <t xml:space="preserve">Date of birth</t>
   </si>
   <si>
     <t>format-date-time(../dob_raw,"%Y-%m-%d")</t>
@@ -454,7 +451,7 @@
     <t>dob_debug</t>
   </si>
   <si>
-    <t>Months: ${ephemeral_months}
+    <t xml:space="preserve">Months: ${ephemeral_months}
 Year: ${ephemeral_years}
 DOB Approx: ${dob_approx}
 DOB Calendar: ${dob_calendar}
@@ -467,49 +464,49 @@
     <t>phone</t>
   </si>
   <si>
-    <t>Phone number</t>
-  </si>
-  <si>
-    <t>फोन नंबर</t>
-  </si>
-  <si>
-    <t>Nomor Telepon</t>
-  </si>
-  <si>
-    <t>Namba ya Simi</t>
-  </si>
-  <si>
-    <t>फाेन नम्बर</t>
+    <t xml:space="preserve">Phone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">फोन नंबर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nomor Telepon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namba ya Simi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">फाेन नम्बर</t>
   </si>
   <si>
     <t>Téléphone</t>
   </si>
   <si>
-    <t>Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +13125551211</t>
+    <t xml:space="preserve">Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +13125551211</t>
   </si>
   <si>
     <t>phone_alternate</t>
   </si>
   <si>
-    <t>Alternate phone number</t>
-  </si>
-  <si>
-    <t>अन्य फोन नंबर</t>
-  </si>
-  <si>
-    <t>Nomor Telepon Alternatif</t>
+    <t xml:space="preserve">Alternate phone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अन्य फोन नंबर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nomor Telepon Alternatif</t>
   </si>
   <si>
     <t xml:space="preserve">Namba Ya </t>
   </si>
   <si>
-    <t>बैकल्पिक फाेन नम्बर</t>
-  </si>
-  <si>
-    <t>Téléphone alternatif</t>
-  </si>
-  <si>
-    <t>select_one male_female</t>
+    <t xml:space="preserve">बैकल्पिक फाेन नम्बर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Téléphone alternatif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one male_female</t>
   </si>
   <si>
     <t>sex</t>
@@ -521,7 +518,7 @@
     <t>लिंग</t>
   </si>
   <si>
-    <t>Jenis kelamin</t>
+    <t xml:space="preserve">Jenis kelamin</t>
   </si>
   <si>
     <t>Jinsia</t>
@@ -536,7 +533,7 @@
     <t>Address</t>
   </si>
   <si>
-    <t>select_one roles</t>
+    <t xml:space="preserve">select_one roles</t>
   </si>
   <si>
     <t>role</t>
@@ -551,7 +548,7 @@
     <t>Peran</t>
   </si>
   <si>
-    <t>Namba ya simu Nyingine</t>
+    <t xml:space="preserve">Namba ya simu Nyingine</t>
   </si>
   <si>
     <t>भुमिका</t>
@@ -563,46 +560,46 @@
     <t>role_other</t>
   </si>
   <si>
-    <t>Specify other</t>
-  </si>
-  <si>
-    <t>अन्य का उल्‍लेख करें</t>
-  </si>
-  <si>
-    <t>Tentukan lainnya</t>
-  </si>
-  <si>
-    <t>Fafanua vingine</t>
-  </si>
-  <si>
-    <t>अन्य उल्लेख गर्नुहोस्</t>
+    <t xml:space="preserve">Specify other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अन्य का उल्‍लेख करें</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tentukan lainnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fafanua vingine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अन्य उल्लेख गर्नुहोस्</t>
   </si>
   <si>
     <t>Specifier</t>
   </si>
   <si>
-    <t>selected( ${role},'other')</t>
+    <t xml:space="preserve">selected( ${role},'other')</t>
   </si>
   <si>
     <t>external_id</t>
   </si>
   <si>
-    <t>External ID</t>
-  </si>
-  <si>
-    <t>बाहरी ID</t>
-  </si>
-  <si>
-    <t>Eksternal ID</t>
-  </si>
-  <si>
-    <t>Kitambulisho cha nje</t>
-  </si>
-  <si>
-    <t>बाहिरि ID</t>
-  </si>
-  <si>
-    <t>Identifiant externe</t>
+    <t xml:space="preserve">External ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">बाहरी ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eksternal ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitambulisho cha nje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">बाहिरि ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant externe</t>
   </si>
   <si>
     <t>Notes</t>
@@ -644,28 +641,28 @@
     <t>../../../inputs/user/facility_id</t>
   </si>
   <si>
-    <t>select_one yes_no_generated_name</t>
+    <t xml:space="preserve">select_one yes_no_generated_name</t>
   </si>
   <si>
     <t>is_name_generated</t>
   </si>
   <si>
-    <t>Would you like to name the place after the primary contact: "${generated_name_translation}"?</t>
-  </si>
-  <si>
-    <t>क्या आप इस स्थान को प्राथमिक कॉंटॅक्ट का नाम देना चाहेंगे?: ${generated_name_translation}</t>
-  </si>
-  <si>
-    <t>Apakah Anda ingin nama tempat setelah kontak utama: "${generated_name_translation}"?</t>
-  </si>
-  <si>
-    <t>Je, Ungependa kuita eneo hii kama mwasilishi mkuu wa eneo hii? "${generated_name_translation}"?</t>
-  </si>
-  <si>
-    <t>के तपाइ यस स्थानकाे प्राथमिक सम्पर्क नाम दिन चाहानु हुन्छ?:${generated_name_translation}</t>
-  </si>
-  <si>
-    <t>Voulez-vous nommer l'endroit: "${generated_name_translation}"?</t>
+    <t xml:space="preserve">Would you like to name the place after the primary contact: "${generated_name_translation}"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">क्या आप इस स्थान को प्राथमिक कॉंटॅक्ट का नाम देना चाहेंगे?: ${generated_name_translation}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apakah Anda ingin nama tempat setelah kontak utama: "${generated_name_translation}"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je, Ungependa kuita eneo hii kama mwasilishi mkuu wa eneo hii? "${generated_name_translation}"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">के तपाइ यस स्थानकाे प्राथमिक सम्पर्क नाम दिन चाहानु हुन्छ?:${generated_name_translation}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voulez-vous nommer l'endroit: "${generated_name_translation}"?</t>
   </si>
   <si>
     <t>not(selected(${create_new_person},'none'))</t>
@@ -689,19 +686,19 @@
     <t>Nom</t>
   </si>
   <si>
-    <t>if( ( selected(${is_name_generated}, 'true') or selected(${is_name_generated}, 'yes') ), ${generated_name_translation}, ${custom_place_name})</t>
-  </si>
-  <si>
-    <t>Namba ya nje</t>
-  </si>
-  <si>
-    <t>if(selected(${create_new_person},'none'), "", coalesce(${select_person},"NEW"))</t>
+    <t xml:space="preserve">if( ( selected(${is_name_generated}, 'true') or selected(${is_name_generated}, 'yes') ), ${generated_name_translation}, ${custom_place_name})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namba ya nje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if(selected(${create_new_person},'none'), "", coalesce(${select_person},"NEW"))</t>
   </si>
   <si>
     <t>geolocation</t>
   </si>
   <si>
-    <t>concat(../../inputs/meta/location/lat, concat(' ', ../../inputs/meta/location/long))</t>
+    <t xml:space="preserve">concat(../../inputs/meta/location/lat, concat(' ', ../../inputs/meta/location/long))</t>
   </si>
   <si>
     <t>list_name</t>
@@ -797,64 +794,64 @@
     <t>new_person</t>
   </si>
   <si>
-    <t>Create a new person</t>
-  </si>
-  <si>
-    <t>एक नया व्यक्ति बनाएं</t>
-  </si>
-  <si>
-    <t>Buat orang baru</t>
-  </si>
-  <si>
-    <t>Ongeza mtumizi mpya</t>
-  </si>
-  <si>
-    <t>एक नया व्यक्ति बनाउनुस</t>
-  </si>
-  <si>
-    <t>Créer une nouvelle personne</t>
+    <t xml:space="preserve">Create a new person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">एक नया व्यक्ति बनाएं</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buat orang baru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ongeza mtumizi mpya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">एक नया व्यक्ति बनाउनुस</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créer une nouvelle personne</t>
   </si>
   <si>
     <t>old_person</t>
   </si>
   <si>
-    <t>Select an existing person</t>
-  </si>
-  <si>
-    <t>मौजूदा व्यक्ति चुनें</t>
-  </si>
-  <si>
-    <t>Pilih orang yang ada</t>
-  </si>
-  <si>
-    <t>Chagua mtumizi aliyesajlishwa apo awali</t>
-  </si>
-  <si>
-    <t>व्यक्ति छान्नुहोस्</t>
-  </si>
-  <si>
-    <t>Selectiionner une personne existant</t>
+    <t xml:space="preserve">Select an existing person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">मौजूदा व्यक्ति चुनें</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilih orang yang ada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chagua mtumizi aliyesajlishwa apo awali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">व्यक्ति छान्नुहोस्</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selectiionner une personne existant</t>
   </si>
   <si>
     <t>none</t>
   </si>
   <si>
-    <t>Skip this step</t>
-  </si>
-  <si>
-    <t>इस स्टेप को छोड़ दें</t>
-  </si>
-  <si>
-    <t>Lewati langkah ini</t>
-  </si>
-  <si>
-    <t>Ruka hatua ii</t>
+    <t xml:space="preserve">Skip this step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">इस स्टेप को छोड़ दें</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lewati langkah ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruka hatua ii</t>
   </si>
   <si>
     <t xml:space="preserve">एख </t>
   </si>
   <si>
-    <t>Sauter cette section</t>
+    <t xml:space="preserve">Sauter cette section</t>
   </si>
   <si>
     <t>select_dob_method</t>
@@ -863,7 +860,7 @@
     <t>approx</t>
   </si>
   <si>
-    <t>Date of birth unknown</t>
+    <t xml:space="preserve">Date of birth unknown</t>
   </si>
   <si>
     <t>roles</t>
@@ -875,16 +872,16 @@
     <t>CHW</t>
   </si>
   <si>
-    <t>सामुदायिक स्वास्थ्य कर्मी</t>
+    <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी</t>
   </si>
   <si>
     <t>Kader</t>
   </si>
   <si>
-    <t>Mhudumu wa afya</t>
-  </si>
-  <si>
-    <t>महिला स्वास्थ्य स्वयम् सेविका</t>
+    <t xml:space="preserve">Mhudumu wa afya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविका</t>
   </si>
   <si>
     <t>ASC</t>
@@ -893,22 +890,22 @@
     <t>chw_supervisor</t>
   </si>
   <si>
-    <t>CHW Supervisor</t>
-  </si>
-  <si>
-    <t>सामुदायिक स्वास्थ्य कर्मी के मैनेजर</t>
-  </si>
-  <si>
-    <t>Kader Pengawas</t>
-  </si>
-  <si>
-    <t>Mkuu wa wahudumu wa afya</t>
-  </si>
-  <si>
-    <t>महिला स्वास्थ्य स्वयम् सेविकाको सुपरभाइजर</t>
-  </si>
-  <si>
-    <t>Superviseur ASC</t>
+    <t xml:space="preserve">CHW Supervisor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी के मैनेजर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kader Pengawas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mkuu wa wahudumu wa afya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविकाको सुपरभाइजर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superviseur ASC</t>
   </si>
   <si>
     <t>patient</t>
@@ -953,28 +950,28 @@
     <t>हो</t>
   </si>
   <si>
-    <t>No, I want to name it manually</t>
-  </si>
-  <si>
-    <t>नहीं, मैं इसे मैन्युअल रूप से नाम देना चाहता हूं</t>
-  </si>
-  <si>
-    <t>Tidak, saya ingin nama itu secara manual</t>
-  </si>
-  <si>
-    <t>Hapana, ningependa kuijaza mwenyewe</t>
-  </si>
-  <si>
-    <t>होइन, म आफैँ नाम दिन चाहन्छु</t>
-  </si>
-  <si>
-    <t>Non, je veux nommer ça manuellement</t>
+    <t xml:space="preserve">No, I want to name it manually</t>
+  </si>
+  <si>
+    <t xml:space="preserve">नहीं, मैं इसे मैन्युअल रूप से नाम देना चाहता हूं</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tidak, saya ingin nama itu secara manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hapana, ningependa kuijaza mwenyewe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">होइन, म आफैँ नाम दिन चाहन्छु</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non, je veux nommer ça manuellement</t>
   </si>
   <si>
     <t>district_hospital</t>
   </si>
   <si>
-    <t>Health Facility</t>
+    <t xml:space="preserve">Health Facility</t>
   </si>
   <si>
     <t>ज़िला</t>
@@ -998,19 +995,19 @@
     <t>Area</t>
   </si>
   <si>
-    <t>स्वास्थ्य केंद्र</t>
-  </si>
-  <si>
-    <t>Fasilitas Kesehatan</t>
-  </si>
-  <si>
-    <t>Kituo cha afya</t>
-  </si>
-  <si>
-    <t>स्वास्थ्य केन्द्र</t>
-  </si>
-  <si>
-    <t>Centre de santé</t>
+    <t xml:space="preserve">स्वास्थ्य केंद्र</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fasilitas Kesehatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kituo cha afya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">स्वास्थ्य केन्द्र</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centre de santé</t>
   </si>
   <si>
     <t>clinic</t>
@@ -1031,58 +1028,58 @@
     <t>Zone</t>
   </si>
   <si>
-    <t>${contact_name}'s Health Facility</t>
-  </si>
-  <si>
-    <t>${contact_name} का ज़िला</t>
+    <t xml:space="preserve">${contact_name}'s Health Facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${contact_name} का ज़िला</t>
   </si>
   <si>
     <t xml:space="preserve">Kabupaten ${contact_name} </t>
   </si>
   <si>
-    <t>WIlaya ya  ${contact_name}</t>
+    <t xml:space="preserve">WIlaya ya  ${contact_name}</t>
   </si>
   <si>
     <t xml:space="preserve">${contact_name}को जिल्ला </t>
   </si>
   <si>
-    <t>District de ${contact_name}</t>
-  </si>
-  <si>
-    <t>${contact_name}'s Area</t>
-  </si>
-  <si>
-    <t>${contact_name} का स्वास्थ्य केंद्र</t>
+    <t xml:space="preserve">District de ${contact_name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${contact_name}'s Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${contact_name} का स्वास्थ्य केंद्र</t>
   </si>
   <si>
     <t xml:space="preserve">Fasilitas Kesehatan ${contact_name} </t>
   </si>
   <si>
-    <t>Kituo cha afya cha  ${contact_name}</t>
-  </si>
-  <si>
-    <t>${contact_name}को स्वास्थ्य केन्द्र</t>
-  </si>
-  <si>
-    <t>Centre de santé de ${contact_name}</t>
-  </si>
-  <si>
-    <t>${contact_name}'s Household</t>
-  </si>
-  <si>
-    <t>${contact_name} का क्षेत्र</t>
+    <t xml:space="preserve">Kituo cha afya cha  ${contact_name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${contact_name}को स्वास्थ्य केन्द्र</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centre de santé de ${contact_name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${contact_name}'s Household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${contact_name} का क्षेत्र</t>
   </si>
   <si>
     <t xml:space="preserve">Daerah ${contact_name} </t>
   </si>
   <si>
-    <t>Eneo ya  ${contact_name}</t>
-  </si>
-  <si>
-    <t>${contact_name}को क्षेत्र</t>
-  </si>
-  <si>
-    <t>Zone de ${contact_name}</t>
+    <t xml:space="preserve">Eneo ya  ${contact_name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${contact_name}को क्षेत्र</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone de ${contact_name}</t>
   </si>
   <si>
     <t>translate_name_label</t>
@@ -1103,7 +1100,7 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>New PLACE_NAME</t>
+    <t xml:space="preserve">New PLACE_NAME</t>
   </si>
   <si>
     <t>contact:PLACE_TYPE:create</t>
@@ -1118,32 +1115,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="11.0"/>
       <name val="Calibri"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1151,7 +1148,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1209,169 +1206,388 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor indexed="65"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="41">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf fontId="1" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf fontId="3" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="10" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="10" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="11" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1428,7 +1644,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1454,7 +1670,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1506,16 +1722,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1531,7 +1759,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1561,49 +1789,49 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <pageSetUpPr/>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2.0" ySplit="1.0" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C1" sqref="C1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+      <selection activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="34.0"/>
-    <col customWidth="1" min="2" max="2" width="26.0"/>
-    <col customWidth="1" min="3" max="3" width="47.86"/>
+    <col customWidth="1" min="1" max="1" width="34"/>
+    <col customWidth="1" min="2" max="2" width="26"/>
+    <col customWidth="1" min="3" max="3" width="47.859999999999999"/>
     <col customWidth="1" hidden="1" min="4" max="4" width="33.43"/>
     <col customWidth="1" hidden="1" min="5" max="5" width="27.43"/>
-    <col customWidth="1" hidden="1" min="6" max="6" width="37.29"/>
-    <col customWidth="1" hidden="1" min="7" max="7" width="31.29"/>
-    <col customWidth="1" hidden="1" min="8" max="8" width="8.14"/>
-    <col customWidth="1" hidden="1" min="9" max="9" width="16.71"/>
-    <col customWidth="1" min="10" max="10" width="8.14"/>
+    <col customWidth="1" hidden="1" min="6" max="6" width="37.289999999999999"/>
+    <col customWidth="1" hidden="1" min="7" max="7" width="31.289999999999999"/>
+    <col customWidth="1" hidden="1" min="8" max="8" width="8.1400000000000006"/>
+    <col customWidth="1" hidden="1" min="9" max="9" width="16.710000000000001"/>
+    <col customWidth="1" min="10" max="10" width="8.1400000000000006"/>
     <col customWidth="1" min="11" max="11" width="51.43"/>
-    <col customWidth="1" min="12" max="13" width="10.71"/>
-    <col customWidth="1" min="14" max="14" width="25.29"/>
-    <col customWidth="1" min="15" max="15" width="46.29"/>
-    <col customWidth="1" min="16" max="16" width="68.86"/>
-    <col customWidth="1" min="17" max="17" width="9.43"/>
+    <col customWidth="1" min="12" max="13" width="10.710000000000001"/>
+    <col customWidth="1" min="14" max="14" width="25.289999999999999"/>
+    <col customWidth="1" min="15" max="15" width="46.289999999999999"/>
+    <col customWidth="1" min="16" max="16" width="68.859999999999999"/>
+    <col customWidth="1" min="17" max="17" width="9.4299999999999997"/>
     <col customWidth="1" min="18" max="18" width="33.43"/>
-    <col customWidth="1" min="19" max="19" width="36.29"/>
+    <col customWidth="1" min="19" max="19" width="36.289999999999999"/>
     <col customWidth="1" min="20" max="23" width="13.57"/>
     <col customWidth="1" min="24" max="24" width="7.71"/>
-    <col customWidth="1" min="25" max="25" width="8.71"/>
-    <col customWidth="1" min="26" max="26" width="35.86"/>
+    <col customWidth="1" min="25" max="25" width="8.7100000000000009"/>
+    <col customWidth="1" min="26" max="26" width="35.859999999999999"/>
     <col customWidth="1" min="27" max="36" width="7.71"/>
-    <col customWidth="1" min="37" max="38" width="15.14"/>
-    <col customWidth="1" min="39" max="44" width="17.29"/>
+    <col customWidth="1" min="37" max="38" width="15.140000000000001"/>
+    <col customWidth="1" min="39" max="44" width="17.289999999999999"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2224,7 +2452,7 @@
       <c r="B11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="16" t="s">
@@ -2290,7 +2518,7 @@
       <c r="B12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -2435,7 +2663,7 @@
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
-      <c r="P14" s="19" t="s">
+      <c r="P14" s="18" t="s">
         <v>61</v>
       </c>
       <c r="Q14" s="16"/>
@@ -2477,7 +2705,7 @@
       <c r="C15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="16" t="s">
@@ -2543,7 +2771,7 @@
         <v>66</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="19"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -2554,8 +2782,8 @@
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19" t="s">
+      <c r="O16" s="18"/>
+      <c r="P16" s="18" t="s">
         <v>67</v>
       </c>
       <c r="Q16" s="16"/>
@@ -2689,7 +2917,7 @@
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
-      <c r="P18" s="19"/>
+      <c r="P18" s="18"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
@@ -2698,7 +2926,7 @@
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
-      <c r="Y18" s="19" t="s">
+      <c r="Y18" s="18" t="s">
         <v>80</v>
       </c>
       <c r="Z18" s="16"/>
@@ -2741,7 +2969,7 @@
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
-      <c r="P19" s="19" t="s">
+      <c r="P19" s="18" t="s">
         <v>82</v>
       </c>
       <c r="Q19" s="16"/>
@@ -2816,7 +3044,7 @@
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
-      <c r="Y20" s="19" t="s">
+      <c r="Y20" s="18" t="s">
         <v>80</v>
       </c>
       <c r="Z20" s="16"/>
@@ -2859,7 +3087,7 @@
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="19" t="s">
+      <c r="P21" s="18" t="s">
         <v>86</v>
       </c>
       <c r="Q21" s="16"/>
@@ -2986,7 +3214,7 @@
       <c r="B24" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>88</v>
       </c>
       <c r="D24" s="16" t="s">
@@ -3067,7 +3295,7 @@
       <c r="G25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="20"/>
+      <c r="H25" s="19"/>
       <c r="I25" s="16" t="s">
         <v>28</v>
       </c>
@@ -3131,7 +3359,7 @@
       <c r="G26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="20"/>
+      <c r="H26" s="19"/>
       <c r="I26" s="16" t="s">
         <v>28</v>
       </c>
@@ -3174,166 +3402,166 @@
       <c r="AR26" s="16"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="22"/>
-      <c r="AC27" s="22"/>
-      <c r="AD27" s="22"/>
-      <c r="AE27" s="22"/>
-      <c r="AF27" s="22"/>
-      <c r="AG27" s="22"/>
-      <c r="AH27" s="22"/>
-      <c r="AI27" s="22"/>
-      <c r="AJ27" s="22"/>
-      <c r="AK27" s="22"/>
-      <c r="AL27" s="22"/>
-      <c r="AM27" s="22"/>
-      <c r="AN27" s="22"/>
-      <c r="AO27" s="22"/>
-      <c r="AP27" s="22"/>
-      <c r="AQ27" s="22"/>
-      <c r="AR27" s="22"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="19"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="19"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
+      <c r="AQ27" s="19"/>
+      <c r="AR27" s="19"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22" t="s">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22"/>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="22"/>
-      <c r="AH28" s="22"/>
-      <c r="AI28" s="22"/>
-      <c r="AJ28" s="22"/>
-      <c r="AK28" s="22"/>
-      <c r="AL28" s="22"/>
-      <c r="AM28" s="22"/>
-      <c r="AN28" s="22"/>
-      <c r="AO28" s="22"/>
-      <c r="AP28" s="22"/>
-      <c r="AQ28" s="22"/>
-      <c r="AR28" s="22"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="19"/>
+      <c r="AQ28" s="19"/>
+      <c r="AR28" s="19"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22" t="s">
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="22"/>
-      <c r="AD29" s="22"/>
-      <c r="AE29" s="22"/>
-      <c r="AF29" s="22"/>
-      <c r="AG29" s="22"/>
-      <c r="AH29" s="22"/>
-      <c r="AI29" s="22"/>
-      <c r="AJ29" s="22"/>
-      <c r="AK29" s="22"/>
-      <c r="AL29" s="22"/>
-      <c r="AM29" s="22"/>
-      <c r="AN29" s="22"/>
-      <c r="AO29" s="22"/>
-      <c r="AP29" s="22"/>
-      <c r="AQ29" s="22"/>
-      <c r="AR29" s="22"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="19"/>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="19"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="19"/>
+      <c r="AQ29" s="19"/>
+      <c r="AR29" s="19"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="17" t="s">
@@ -3342,8 +3570,8 @@
       <c r="B30" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -3396,8 +3624,8 @@
       <c r="B31" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
@@ -3451,20 +3679,20 @@
       <c r="C32" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20" t="s">
+      <c r="H32" s="19"/>
+      <c r="I32" s="19" t="s">
         <v>28</v>
       </c>
       <c r="J32" s="16"/>
@@ -3513,7 +3741,7 @@
       <c r="C33" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -3629,7 +3857,7 @@
       <c r="C35" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="19"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -3683,13 +3911,13 @@
       <c r="A36" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="21" t="s">
         <v>123</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D36" s="19"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -3747,7 +3975,7 @@
       <c r="C37" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="19"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -3799,7 +4027,7 @@
         <v>131</v>
       </c>
       <c r="C38" s="16"/>
-      <c r="D38" s="19"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -3811,7 +4039,7 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
-      <c r="P38" s="16" t="s">
+      <c r="P38" s="22" t="s">
         <v>132</v>
       </c>
       <c r="Q38" s="16"/>
@@ -3851,7 +4079,7 @@
         <v>133</v>
       </c>
       <c r="C39" s="16"/>
-      <c r="D39" s="19"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
@@ -3863,7 +4091,7 @@
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
-      <c r="P39" s="16" t="s">
+      <c r="P39" s="22" t="s">
         <v>134</v>
       </c>
       <c r="Q39" s="16"/>
@@ -3905,7 +4133,7 @@
       <c r="C40" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="19"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -3957,7 +4185,7 @@
         <v>138</v>
       </c>
       <c r="C41" s="16"/>
-      <c r="D41" s="19"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -4008,10 +4236,10 @@
       <c r="B42" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D42" s="19"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
@@ -4065,7 +4293,7 @@
       <c r="C43" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="19"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
@@ -4116,7 +4344,7 @@
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="16"/>
-      <c r="D44" s="19"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
@@ -4165,7 +4393,7 @@
       <c r="B45" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="16" t="s">
         <v>147</v>
       </c>
       <c r="D45" s="16" t="s">
@@ -4191,10 +4419,10 @@
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
       <c r="N45" s="24" t="b">
-        <f t="shared" ref="N45:N46" si="1">TRUE()</f>
+        <f t="shared" ref="N45:N46" si="0">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="O45" s="18" t="s">
+      <c r="O45" s="16" t="s">
         <v>153</v>
       </c>
       <c r="P45" s="16"/>
@@ -4234,7 +4462,7 @@
       <c r="B46" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="16" t="s">
         <v>155</v>
       </c>
       <c r="D46" s="16" t="s">
@@ -4260,10 +4488,10 @@
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
       <c r="N46" s="24" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O46" s="18" t="s">
+      <c r="O46" s="16" t="s">
         <v>153</v>
       </c>
       <c r="P46" s="16"/>
@@ -4365,58 +4593,58 @@
       <c r="AR47" s="16"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
       <c r="K48" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="22"/>
-      <c r="T48" s="22"/>
-      <c r="U48" s="22"/>
-      <c r="V48" s="22"/>
-      <c r="W48" s="22"/>
-      <c r="X48" s="22"/>
-      <c r="Y48" s="22"/>
-      <c r="Z48" s="22"/>
-      <c r="AA48" s="22"/>
-      <c r="AB48" s="22"/>
-      <c r="AC48" s="22"/>
-      <c r="AD48" s="22"/>
-      <c r="AE48" s="22"/>
-      <c r="AF48" s="22"/>
-      <c r="AG48" s="22"/>
-      <c r="AH48" s="22"/>
-      <c r="AI48" s="22"/>
-      <c r="AJ48" s="22"/>
-      <c r="AK48" s="22"/>
-      <c r="AL48" s="22"/>
-      <c r="AM48" s="22"/>
-      <c r="AN48" s="22"/>
-      <c r="AO48" s="22"/>
-      <c r="AP48" s="22"/>
-      <c r="AQ48" s="22"/>
-      <c r="AR48" s="22"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="19"/>
+      <c r="AD48" s="19"/>
+      <c r="AE48" s="19"/>
+      <c r="AF48" s="19"/>
+      <c r="AG48" s="19"/>
+      <c r="AH48" s="19"/>
+      <c r="AI48" s="19"/>
+      <c r="AJ48" s="19"/>
+      <c r="AK48" s="19"/>
+      <c r="AL48" s="19"/>
+      <c r="AM48" s="19"/>
+      <c r="AN48" s="19"/>
+      <c r="AO48" s="19"/>
+      <c r="AP48" s="19"/>
+      <c r="AQ48" s="19"/>
+      <c r="AR48" s="19"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="17" t="s">
@@ -4444,7 +4672,7 @@
       <c r="I49" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="J49" s="18" t="s">
+      <c r="J49" s="16" t="s">
         <v>47</v>
       </c>
       <c r="K49" s="16" t="s">
@@ -5296,7 +5524,7 @@
       <c r="C64" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D64" s="18" t="s">
         <v>217</v>
       </c>
       <c r="E64" s="16" t="s">
@@ -5371,7 +5599,7 @@
       <c r="F65" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="G65" s="19" t="s">
+      <c r="G65" s="18" t="s">
         <v>191</v>
       </c>
       <c r="H65" s="16"/>
@@ -5485,7 +5713,7 @@
       <c r="F67" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="G67" s="19" t="s">
+      <c r="G67" s="18" t="s">
         <v>197</v>
       </c>
       <c r="H67" s="16"/>
@@ -5653,7 +5881,7 @@
       <c r="F70" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G70" s="19" t="s">
+      <c r="G70" s="18" t="s">
         <v>28</v>
       </c>
       <c r="H70" s="16"/>
@@ -6879,33 +7107,36 @@
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <pageSetUpPr/>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.14"/>
+    <col customWidth="1" min="1" max="1" width="21.140000000000001"/>
     <col customWidth="1" min="2" max="2" width="14.43"/>
-    <col customWidth="1" min="3" max="3" width="29.0"/>
-    <col customWidth="1" min="4" max="4" width="36.29"/>
-    <col customWidth="1" min="5" max="5" width="27.29"/>
-    <col customWidth="1" min="6" max="7" width="24.71"/>
+    <col customWidth="1" min="3" max="3" width="29"/>
+    <col customWidth="1" min="4" max="4" width="36.289999999999999"/>
+    <col customWidth="1" min="5" max="5" width="27.289999999999999"/>
+    <col customWidth="1" min="6" max="7" width="24.710000000000001"/>
     <col customWidth="1" min="8" max="8" width="7.71"/>
-    <col customWidth="1" min="9" max="9" width="14.29"/>
+    <col customWidth="1" min="9" max="9" width="14.289999999999999"/>
     <col customWidth="1" min="10" max="13" width="7.71"/>
-    <col customWidth="1" min="14" max="26" width="15.14"/>
+    <col customWidth="1" min="14" max="26" width="15.140000000000001"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -6977,7 +7208,7 @@
         <v>232</v>
       </c>
       <c r="H2" s="33"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>233</v>
       </c>
       <c r="J2" s="8"/>
@@ -7021,7 +7252,7 @@
         <v>239</v>
       </c>
       <c r="H3" s="33"/>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>240</v>
       </c>
       <c r="J3" s="8"/>
@@ -7065,7 +7296,7 @@
         <v>247</v>
       </c>
       <c r="H4" s="33"/>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="19" t="s">
         <v>248</v>
       </c>
       <c r="J4" s="8"/>
@@ -7109,7 +7340,7 @@
         <v>254</v>
       </c>
       <c r="H5" s="33"/>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="19" t="s">
         <v>255</v>
       </c>
       <c r="J5" s="8"/>
@@ -7153,7 +7384,7 @@
         <v>261</v>
       </c>
       <c r="H6" s="33"/>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="19" t="s">
         <v>262</v>
       </c>
       <c r="J6" s="8"/>
@@ -7197,7 +7428,7 @@
         <v>268</v>
       </c>
       <c r="H7" s="33"/>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="19" t="s">
         <v>269</v>
       </c>
       <c r="J7" s="8"/>
@@ -7241,7 +7472,7 @@
         <v>275</v>
       </c>
       <c r="H8" s="33"/>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="19" t="s">
         <v>276</v>
       </c>
       <c r="J8" s="8"/>
@@ -7277,7 +7508,7 @@
       <c r="F9" s="31"/>
       <c r="G9" s="32"/>
       <c r="H9" s="33"/>
-      <c r="I9" s="20"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -7319,7 +7550,7 @@
         <v>286</v>
       </c>
       <c r="H10" s="33"/>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="19" t="s">
         <v>287</v>
       </c>
       <c r="J10" s="8"/>
@@ -7363,7 +7594,7 @@
         <v>293</v>
       </c>
       <c r="H11" s="33"/>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="19" t="s">
         <v>294</v>
       </c>
       <c r="J11" s="8"/>
@@ -7407,7 +7638,7 @@
         <v>300</v>
       </c>
       <c r="H12" s="33"/>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="19" t="s">
         <v>296</v>
       </c>
       <c r="J12" s="8"/>
@@ -7451,7 +7682,7 @@
         <v>303</v>
       </c>
       <c r="H13" s="33"/>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="19" t="s">
         <v>306</v>
       </c>
       <c r="J13" s="8"/>
@@ -7495,7 +7726,7 @@
         <v>308</v>
       </c>
       <c r="H14" s="33"/>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="19" t="s">
         <v>233</v>
       </c>
       <c r="J14" s="8"/>
@@ -7539,7 +7770,7 @@
         <v>313</v>
       </c>
       <c r="H15" s="33"/>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="19" t="s">
         <v>314</v>
       </c>
       <c r="J15" s="8"/>
@@ -7583,7 +7814,7 @@
         <v>320</v>
       </c>
       <c r="H16" s="33"/>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="19" t="s">
         <v>321</v>
       </c>
       <c r="J16" s="8"/>
@@ -7627,7 +7858,7 @@
         <v>327</v>
       </c>
       <c r="H17" s="33"/>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="19" t="s">
         <v>328</v>
       </c>
       <c r="J17" s="8"/>
@@ -7671,7 +7902,7 @@
         <v>331</v>
       </c>
       <c r="H18" s="33"/>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="19" t="s">
         <v>334</v>
       </c>
       <c r="J18" s="8"/>
@@ -7715,7 +7946,7 @@
         <v>339</v>
       </c>
       <c r="H19" s="33"/>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="19" t="s">
         <v>340</v>
       </c>
       <c r="J19" s="8"/>
@@ -7759,7 +7990,7 @@
         <v>345</v>
       </c>
       <c r="H20" s="33"/>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="19" t="s">
         <v>346</v>
       </c>
       <c r="J20" s="8"/>
@@ -7803,7 +8034,7 @@
         <v>351</v>
       </c>
       <c r="H21" s="33"/>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="19" t="s">
         <v>352</v>
       </c>
       <c r="J21" s="8"/>
@@ -7847,7 +8078,7 @@
         <v>217</v>
       </c>
       <c r="H22" s="33"/>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="19" t="s">
         <v>220</v>
       </c>
       <c r="J22" s="8"/>
@@ -8845,31 +9076,34 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <pageSetUpPr/>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.14"/>
-    <col customWidth="1" min="2" max="2" width="12.71"/>
-    <col customWidth="1" min="3" max="3" width="19.0"/>
+    <col customWidth="1" min="1" max="1" width="28.140000000000001"/>
+    <col customWidth="1" min="2" max="2" width="12.710000000000001"/>
+    <col customWidth="1" min="3" max="3" width="19"/>
     <col customWidth="1" min="4" max="4" width="5.71"/>
-    <col customWidth="1" min="5" max="5" width="14.29"/>
-    <col customWidth="1" min="6" max="6" width="34.0"/>
+    <col customWidth="1" min="5" max="5" width="14.289999999999999"/>
+    <col customWidth="1" min="6" max="6" width="34"/>
     <col customWidth="1" min="7" max="14" width="7.71"/>
-    <col customWidth="1" min="15" max="25" width="15.14"/>
+    <col customWidth="1" min="15" max="25" width="15.140000000000001"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -8917,8 +9151,8 @@
         <v>360</v>
       </c>
       <c r="C2" s="40" t="str">
-        <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-08-18_00-06</v>
+        <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
+        <v xml:space="preserve">2022-02-25 15-16</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>361</v>
@@ -15614,9 +15848,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config/covid-19/forms/contact/PLACE_TYPE-create.xlsx
+++ b/config/covid-19/forms/contact/PLACE_TYPE-create.xlsx
@@ -1,21 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\apoorva\cht-core\config\covid-19\forms\contact\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373039D1-0BDF-46AD-950A-BFDB689FBBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="362">
   <si>
     <t>type</t>
   </si>
@@ -95,7 +113,7 @@
     <t>notes</t>
   </si>
   <si>
-    <t xml:space="preserve">begin group</t>
+    <t>begin group</t>
   </si>
   <si>
     <t>inputs</t>
@@ -113,19 +131,19 @@
     <t>contact_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Contact ID of the logged in user</t>
+    <t>Contact ID of the logged in user</t>
   </si>
   <si>
     <t>facility_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Place ID of the logged in user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of the logged in user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end group</t>
+    <t>Place ID of the logged in user</t>
+  </si>
+  <si>
+    <t>Name of the logged in user</t>
+  </si>
+  <si>
+    <t>end group</t>
   </si>
   <si>
     <t>init</t>
@@ -134,63 +152,54 @@
     <t>field-list</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one contact</t>
+    <t>select_one contact</t>
   </si>
   <si>
     <t>create_new_person</t>
   </si>
   <si>
-    <t xml:space="preserve">Set the primary contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">प्राथमिक कॉंटॅक्ट चुनें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ditetapkan Sebagai Kontak Utama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weka mwasiliwa mkuu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">प्राथमिक सम्पर्क व्यक्ति</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact primaire</t>
+    <t>Set the primary contact</t>
+  </si>
+  <si>
+    <t>प्राथमिक कॉंटॅक्ट चुनें</t>
+  </si>
+  <si>
+    <t>Ditetapkan Sebagai Kontak Utama</t>
+  </si>
+  <si>
+    <t>Weka mwasiliwa mkuu</t>
+  </si>
+  <si>
+    <t>प्राथमिक सम्पर्क व्यक्ति</t>
+  </si>
+  <si>
+    <t>Contact primaire</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>horizontal-compact</t>
-  </si>
-  <si>
-    <t>db:person</t>
-  </si>
-  <si>
     <t>select_person</t>
   </si>
   <si>
-    <t xml:space="preserve">Select the primary contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilih Kontak Utama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chagua Mwasiliwa mkuu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">प्राथमिक सम्पर्क व्यक्ति छान्नुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choisisser le contact primaire</t>
+    <t>Select the primary contact</t>
+  </si>
+  <si>
+    <t>Pilih Kontak Utama</t>
+  </si>
+  <si>
+    <t>Chagua Mwasiliwa mkuu</t>
+  </si>
+  <si>
+    <t>प्राथमिक सम्पर्क व्यक्ति छान्नुहोस्</t>
+  </si>
+  <si>
+    <t>Choisisser le contact primaire</t>
   </si>
   <si>
     <t>selected(${create_new_person},'old_person')</t>
   </si>
   <si>
-    <t>db-object</t>
-  </si>
-  <si>
     <t>hidden</t>
   </si>
   <si>
@@ -200,10 +209,10 @@
     <t>contact_name</t>
   </si>
   <si>
-    <t xml:space="preserve">coalesce(../../contact/name, ../name)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one translate_name_label</t>
+    <t>coalesce(../../contact/name, ../name)</t>
+  </si>
+  <si>
+    <t>select_one translate_name_label</t>
   </si>
   <si>
     <t>custom_place_name_label_translator</t>
@@ -227,34 +236,34 @@
     <t>${custom_place_name_label}</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${create_new_person},'none') or selected(${is_name_generated}, 'false')  or selected(${is_name_generated}, 'no')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standalone question only if no contact is selected, so show label accordingly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one place_type</t>
+    <t>selected(${create_new_person},'none') or selected(${is_name_generated}, 'false')  or selected(${is_name_generated}, 'no')</t>
+  </si>
+  <si>
+    <t>Standalone question only if no contact is selected, so show label accordingly</t>
+  </si>
+  <si>
+    <t>select_one place_type</t>
   </si>
   <si>
     <t>place_type</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter the name of this place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">इस स्थान का नाम दर्ज करें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masukkan nama tempat ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaza jina la eneo hii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">यस स्थानको नाम लेख्नुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom de l'endroit</t>
+    <t>Enter the name of this place</t>
+  </si>
+  <si>
+    <t>इस स्थान का नाम दर्ज करें</t>
+  </si>
+  <si>
+    <t>Masukkan nama tempat ini</t>
+  </si>
+  <si>
+    <t>Jaza jina la eneo hii</t>
+  </si>
+  <si>
+    <t>यस स्थानको नाम लेख्नुहोस्</t>
+  </si>
+  <si>
+    <t>Nom de l'endroit</t>
   </si>
   <si>
     <t>PLACE_TYPE</t>
@@ -266,7 +275,7 @@
     <t>jr:choice-name(${place_type},'${place_type}')</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one generated_name</t>
+    <t>select_one generated_name</t>
   </si>
   <si>
     <t>generated_name</t>
@@ -281,19 +290,19 @@
     <t>contact</t>
   </si>
   <si>
-    <t xml:space="preserve">New person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नया व्यक्ति</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orang Baru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtu Mpya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nouvelle personne</t>
+    <t>New person</t>
+  </si>
+  <si>
+    <t>नया व्यक्ति</t>
+  </si>
+  <si>
+    <t>Orang Baru</t>
+  </si>
+  <si>
+    <t>Mtu Mpya</t>
+  </si>
+  <si>
+    <t>Nouvelle personne</t>
   </si>
   <si>
     <t>selected(${create_new_person},'new_person')</t>
@@ -311,7 +320,7 @@
     <t>first_name</t>
   </si>
   <si>
-    <t xml:space="preserve">First name</t>
+    <t>First name</t>
   </si>
   <si>
     <t>last_name</t>
@@ -320,7 +329,7 @@
     <t xml:space="preserve">Last name </t>
   </si>
   <si>
-    <t xml:space="preserve">concat(${first_name}, ' ', ${last_name})</t>
+    <t>concat(${first_name}, ' ', ${last_name})</t>
   </si>
   <si>
     <t>date_of_birth</t>
@@ -350,13 +359,13 @@
     <t>not(selected(../dob_method,'approx'))</t>
   </si>
   <si>
-    <t xml:space="preserve">floor(decimal-date-time(.)) &lt;= floor(decimal-date-time(today()))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date must be before today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Birth</t>
+    <t>floor(decimal-date-time(.)) &lt;= floor(decimal-date-time(today()))</t>
+  </si>
+  <si>
+    <t>Date must be before today</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
   </si>
   <si>
     <t>note</t>
@@ -380,10 +389,10 @@
     <t>Years</t>
   </si>
   <si>
-    <t xml:space="preserve">. &gt;= 0 and . &lt;= 130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age must be between 0 and 130</t>
+    <t>. &gt;= 0 and . &lt;= 130</t>
+  </si>
+  <si>
+    <t>Age must be between 0 and 130</t>
   </si>
   <si>
     <t>age_months</t>
@@ -392,13 +401,13 @@
     <t>Months</t>
   </si>
   <si>
-    <t xml:space="preserve">. &gt;= 0 and . &lt;= 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Months must between 0 and 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple select_dob_method</t>
+    <t>. &gt;= 0 and . &lt;= 11</t>
+  </si>
+  <si>
+    <t>Months must between 0 and 11</t>
+  </si>
+  <si>
+    <t>select_multiple select_dob_method</t>
   </si>
   <si>
     <t>dob_method</t>
@@ -407,19 +416,16 @@
     <t>DELETE_THIS_LINE</t>
   </si>
   <si>
-    <t>horizontal</t>
-  </si>
-  <si>
     <t>ephemeral_months</t>
   </si>
   <si>
-    <t xml:space="preserve">if(format-date-time(today(),"%m") - coalesce(../age_months, 0) &lt; 0, format-date-time(today(),"%m") - coalesce(../age_months, 0) + 12, format-date-time(today(),"%m") - coalesce(../age_months, 0))</t>
+    <t>if(format-date-time(today(),"%m") - coalesce(../age_months, 0) &lt; 0, format-date-time(today(),"%m") - coalesce(../age_months, 0) + 12, format-date-time(today(),"%m") - coalesce(../age_months, 0))</t>
   </si>
   <si>
     <t>ephemeral_years</t>
   </si>
   <si>
-    <t xml:space="preserve">if(format-date-time(today(),"%m") - coalesce(../age_months, 0) &lt; 0, format-date-time(today(),"%Y") - ../age_years - 1, format-date-time(today(),"%Y") -../age_years)</t>
+    <t>if(format-date-time(today(),"%m") - coalesce(../age_months, 0) &lt; 0, format-date-time(today(),"%Y") - ../age_years - 1, format-date-time(today(),"%Y") -../age_years)</t>
   </si>
   <si>
     <t>dob_approx</t>
@@ -428,13 +434,13 @@
     <t>DOB</t>
   </si>
   <si>
-    <t xml:space="preserve">concat(string(${ephemeral_years}),'-',if(${ephemeral_months}&lt;10, concat('0',string(${ephemeral_months})), ${ephemeral_months}),'-',string(format-date-time(today(), "%d")))</t>
+    <t>concat(string(${ephemeral_years}),'-',if(${ephemeral_months}&lt;10, concat('0',string(${ephemeral_months})), ${ephemeral_months}),'-',string(format-date-time(today(), "%d")))</t>
   </si>
   <si>
     <t>dob_raw</t>
   </si>
   <si>
-    <t xml:space="preserve">if(not(selected( ../dob_method,'approx')), 
+    <t>if(not(selected( ../dob_method,'approx')), 
 ../dob_calendar,
 ../dob_approx)</t>
   </si>
@@ -442,7 +448,7 @@
     <t>dob_iso</t>
   </si>
   <si>
-    <t xml:space="preserve">Date of birth</t>
+    <t>Date of birth</t>
   </si>
   <si>
     <t>format-date-time(../dob_raw,"%Y-%m-%d")</t>
@@ -451,7 +457,7 @@
     <t>dob_debug</t>
   </si>
   <si>
-    <t xml:space="preserve">Months: ${ephemeral_months}
+    <t>Months: ${ephemeral_months}
 Year: ${ephemeral_years}
 DOB Approx: ${dob_approx}
 DOB Calendar: ${dob_calendar}
@@ -464,49 +470,49 @@
     <t>phone</t>
   </si>
   <si>
-    <t xml:space="preserve">Phone number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">फोन नंबर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nomor Telepon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namba ya Simi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">फाेन नम्बर</t>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>फोन नंबर</t>
+  </si>
+  <si>
+    <t>Nomor Telepon</t>
+  </si>
+  <si>
+    <t>Namba ya Simi</t>
+  </si>
+  <si>
+    <t>फाेन नम्बर</t>
   </si>
   <si>
     <t>Téléphone</t>
   </si>
   <si>
-    <t xml:space="preserve">Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +13125551211</t>
+    <t>Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +13125551211</t>
   </si>
   <si>
     <t>phone_alternate</t>
   </si>
   <si>
-    <t xml:space="preserve">Alternate phone number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अन्य फोन नंबर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nomor Telepon Alternatif</t>
+    <t>Alternate phone number</t>
+  </si>
+  <si>
+    <t>अन्य फोन नंबर</t>
+  </si>
+  <si>
+    <t>Nomor Telepon Alternatif</t>
   </si>
   <si>
     <t xml:space="preserve">Namba Ya </t>
   </si>
   <si>
-    <t xml:space="preserve">बैकल्पिक फाेन नम्बर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Téléphone alternatif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one male_female</t>
+    <t>बैकल्पिक फाेन नम्बर</t>
+  </si>
+  <si>
+    <t>Téléphone alternatif</t>
+  </si>
+  <si>
+    <t>select_one male_female</t>
   </si>
   <si>
     <t>sex</t>
@@ -518,7 +524,7 @@
     <t>लिंग</t>
   </si>
   <si>
-    <t xml:space="preserve">Jenis kelamin</t>
+    <t>Jenis kelamin</t>
   </si>
   <si>
     <t>Jinsia</t>
@@ -533,7 +539,7 @@
     <t>Address</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one roles</t>
+    <t>select_one roles</t>
   </si>
   <si>
     <t>role</t>
@@ -548,7 +554,7 @@
     <t>Peran</t>
   </si>
   <si>
-    <t xml:space="preserve">Namba ya simu Nyingine</t>
+    <t>Namba ya simu Nyingine</t>
   </si>
   <si>
     <t>भुमिका</t>
@@ -560,46 +566,46 @@
     <t>role_other</t>
   </si>
   <si>
-    <t xml:space="preserve">Specify other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अन्य का उल्‍लेख करें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tentukan lainnya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fafanua vingine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अन्य उल्लेख गर्नुहोस्</t>
+    <t>Specify other</t>
+  </si>
+  <si>
+    <t>अन्य का उल्‍लेख करें</t>
+  </si>
+  <si>
+    <t>Tentukan lainnya</t>
+  </si>
+  <si>
+    <t>Fafanua vingine</t>
+  </si>
+  <si>
+    <t>अन्य उल्लेख गर्नुहोस्</t>
   </si>
   <si>
     <t>Specifier</t>
   </si>
   <si>
-    <t xml:space="preserve">selected( ${role},'other')</t>
+    <t>selected( ${role},'other')</t>
   </si>
   <si>
     <t>external_id</t>
   </si>
   <si>
-    <t xml:space="preserve">External ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बाहरी ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eksternal ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitambulisho cha nje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बाहिरि ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifiant externe</t>
+    <t>External ID</t>
+  </si>
+  <si>
+    <t>बाहरी ID</t>
+  </si>
+  <si>
+    <t>Eksternal ID</t>
+  </si>
+  <si>
+    <t>Kitambulisho cha nje</t>
+  </si>
+  <si>
+    <t>बाहिरि ID</t>
+  </si>
+  <si>
+    <t>Identifiant externe</t>
   </si>
   <si>
     <t>Notes</t>
@@ -641,28 +647,28 @@
     <t>../../../inputs/user/facility_id</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one yes_no_generated_name</t>
+    <t>select_one yes_no_generated_name</t>
   </si>
   <si>
     <t>is_name_generated</t>
   </si>
   <si>
-    <t xml:space="preserve">Would you like to name the place after the primary contact: "${generated_name_translation}"?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">क्या आप इस स्थान को प्राथमिक कॉंटॅक्ट का नाम देना चाहेंगे?: ${generated_name_translation}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apakah Anda ingin nama tempat setelah kontak utama: "${generated_name_translation}"?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Je, Ungependa kuita eneo hii kama mwasilishi mkuu wa eneo hii? "${generated_name_translation}"?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">के तपाइ यस स्थानकाे प्राथमिक सम्पर्क नाम दिन चाहानु हुन्छ?:${generated_name_translation}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voulez-vous nommer l'endroit: "${generated_name_translation}"?</t>
+    <t>Would you like to name the place after the primary contact: "${generated_name_translation}"?</t>
+  </si>
+  <si>
+    <t>क्या आप इस स्थान को प्राथमिक कॉंटॅक्ट का नाम देना चाहेंगे?: ${generated_name_translation}</t>
+  </si>
+  <si>
+    <t>Apakah Anda ingin nama tempat setelah kontak utama: "${generated_name_translation}"?</t>
+  </si>
+  <si>
+    <t>Je, Ungependa kuita eneo hii kama mwasilishi mkuu wa eneo hii? "${generated_name_translation}"?</t>
+  </si>
+  <si>
+    <t>के तपाइ यस स्थानकाे प्राथमिक सम्पर्क नाम दिन चाहानु हुन्छ?:${generated_name_translation}</t>
+  </si>
+  <si>
+    <t>Voulez-vous nommer l'endroit: "${generated_name_translation}"?</t>
   </si>
   <si>
     <t>not(selected(${create_new_person},'none'))</t>
@@ -686,19 +692,19 @@
     <t>Nom</t>
   </si>
   <si>
-    <t xml:space="preserve">if( ( selected(${is_name_generated}, 'true') or selected(${is_name_generated}, 'yes') ), ${generated_name_translation}, ${custom_place_name})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namba ya nje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if(selected(${create_new_person},'none'), "", coalesce(${select_person},"NEW"))</t>
+    <t>if( ( selected(${is_name_generated}, 'true') or selected(${is_name_generated}, 'yes') ), ${generated_name_translation}, ${custom_place_name})</t>
+  </si>
+  <si>
+    <t>Namba ya nje</t>
+  </si>
+  <si>
+    <t>if(selected(${create_new_person},'none'), "", coalesce(${select_person},"NEW"))</t>
   </si>
   <si>
     <t>geolocation</t>
   </si>
   <si>
-    <t xml:space="preserve">concat(../../inputs/meta/location/lat, concat(' ', ../../inputs/meta/location/long))</t>
+    <t>concat(../../inputs/meta/location/lat, concat(' ', ../../inputs/meta/location/long))</t>
   </si>
   <si>
     <t>list_name</t>
@@ -794,64 +800,64 @@
     <t>new_person</t>
   </si>
   <si>
-    <t xml:space="preserve">Create a new person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">एक नया व्यक्ति बनाएं</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buat orang baru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ongeza mtumizi mpya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">एक नया व्यक्ति बनाउनुस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créer une nouvelle personne</t>
+    <t>Create a new person</t>
+  </si>
+  <si>
+    <t>एक नया व्यक्ति बनाएं</t>
+  </si>
+  <si>
+    <t>Buat orang baru</t>
+  </si>
+  <si>
+    <t>Ongeza mtumizi mpya</t>
+  </si>
+  <si>
+    <t>एक नया व्यक्ति बनाउनुस</t>
+  </si>
+  <si>
+    <t>Créer une nouvelle personne</t>
   </si>
   <si>
     <t>old_person</t>
   </si>
   <si>
-    <t xml:space="preserve">Select an existing person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">मौजूदा व्यक्ति चुनें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilih orang yang ada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chagua mtumizi aliyesajlishwa apo awali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">व्यक्ति छान्नुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selectiionner une personne existant</t>
+    <t>Select an existing person</t>
+  </si>
+  <si>
+    <t>मौजूदा व्यक्ति चुनें</t>
+  </si>
+  <si>
+    <t>Pilih orang yang ada</t>
+  </si>
+  <si>
+    <t>Chagua mtumizi aliyesajlishwa apo awali</t>
+  </si>
+  <si>
+    <t>व्यक्ति छान्नुहोस्</t>
+  </si>
+  <si>
+    <t>Selectiionner une personne existant</t>
   </si>
   <si>
     <t>none</t>
   </si>
   <si>
-    <t xml:space="preserve">Skip this step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">इस स्टेप को छोड़ दें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lewati langkah ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruka hatua ii</t>
+    <t>Skip this step</t>
+  </si>
+  <si>
+    <t>इस स्टेप को छोड़ दें</t>
+  </si>
+  <si>
+    <t>Lewati langkah ini</t>
+  </si>
+  <si>
+    <t>Ruka hatua ii</t>
   </si>
   <si>
     <t xml:space="preserve">एख </t>
   </si>
   <si>
-    <t xml:space="preserve">Sauter cette section</t>
+    <t>Sauter cette section</t>
   </si>
   <si>
     <t>select_dob_method</t>
@@ -860,7 +866,7 @@
     <t>approx</t>
   </si>
   <si>
-    <t xml:space="preserve">Date of birth unknown</t>
+    <t>Date of birth unknown</t>
   </si>
   <si>
     <t>roles</t>
@@ -872,16 +878,16 @@
     <t>CHW</t>
   </si>
   <si>
-    <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी</t>
+    <t>सामुदायिक स्वास्थ्य कर्मी</t>
   </si>
   <si>
     <t>Kader</t>
   </si>
   <si>
-    <t xml:space="preserve">Mhudumu wa afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविका</t>
+    <t>Mhudumu wa afya</t>
+  </si>
+  <si>
+    <t>महिला स्वास्थ्य स्वयम् सेविका</t>
   </si>
   <si>
     <t>ASC</t>
@@ -890,22 +896,22 @@
     <t>chw_supervisor</t>
   </si>
   <si>
-    <t xml:space="preserve">CHW Supervisor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी के मैनेजर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kader Pengawas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mkuu wa wahudumu wa afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविकाको सुपरभाइजर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superviseur ASC</t>
+    <t>CHW Supervisor</t>
+  </si>
+  <si>
+    <t>सामुदायिक स्वास्थ्य कर्मी के मैनेजर</t>
+  </si>
+  <si>
+    <t>Kader Pengawas</t>
+  </si>
+  <si>
+    <t>Mkuu wa wahudumu wa afya</t>
+  </si>
+  <si>
+    <t>महिला स्वास्थ्य स्वयम् सेविकाको सुपरभाइजर</t>
+  </si>
+  <si>
+    <t>Superviseur ASC</t>
   </si>
   <si>
     <t>patient</t>
@@ -950,28 +956,28 @@
     <t>हो</t>
   </si>
   <si>
-    <t xml:space="preserve">No, I want to name it manually</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नहीं, मैं इसे मैन्युअल रूप से नाम देना चाहता हूं</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tidak, saya ingin nama itu secara manual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hapana, ningependa kuijaza mwenyewe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">होइन, म आफैँ नाम दिन चाहन्छु</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non, je veux nommer ça manuellement</t>
+    <t>No, I want to name it manually</t>
+  </si>
+  <si>
+    <t>नहीं, मैं इसे मैन्युअल रूप से नाम देना चाहता हूं</t>
+  </si>
+  <si>
+    <t>Tidak, saya ingin nama itu secara manual</t>
+  </si>
+  <si>
+    <t>Hapana, ningependa kuijaza mwenyewe</t>
+  </si>
+  <si>
+    <t>होइन, म आफैँ नाम दिन चाहन्छु</t>
+  </si>
+  <si>
+    <t>Non, je veux nommer ça manuellement</t>
   </si>
   <si>
     <t>district_hospital</t>
   </si>
   <si>
-    <t xml:space="preserve">Health Facility</t>
+    <t>Health Facility</t>
   </si>
   <si>
     <t>ज़िला</t>
@@ -995,19 +1001,19 @@
     <t>Area</t>
   </si>
   <si>
-    <t xml:space="preserve">स्वास्थ्य केंद्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fasilitas Kesehatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kituo cha afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य केन्द्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre de santé</t>
+    <t>स्वास्थ्य केंद्र</t>
+  </si>
+  <si>
+    <t>Fasilitas Kesehatan</t>
+  </si>
+  <si>
+    <t>Kituo cha afya</t>
+  </si>
+  <si>
+    <t>स्वास्थ्य केन्द्र</t>
+  </si>
+  <si>
+    <t>Centre de santé</t>
   </si>
   <si>
     <t>clinic</t>
@@ -1028,58 +1034,58 @@
     <t>Zone</t>
   </si>
   <si>
-    <t xml:space="preserve">${contact_name}'s Health Facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name} का ज़िला</t>
+    <t>${contact_name}'s Health Facility</t>
+  </si>
+  <si>
+    <t>${contact_name} का ज़िला</t>
   </si>
   <si>
     <t xml:space="preserve">Kabupaten ${contact_name} </t>
   </si>
   <si>
-    <t xml:space="preserve">WIlaya ya  ${contact_name}</t>
+    <t>WIlaya ya  ${contact_name}</t>
   </si>
   <si>
     <t xml:space="preserve">${contact_name}को जिल्ला </t>
   </si>
   <si>
-    <t xml:space="preserve">District de ${contact_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name}'s Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name} का स्वास्थ्य केंद्र</t>
+    <t>District de ${contact_name}</t>
+  </si>
+  <si>
+    <t>${contact_name}'s Area</t>
+  </si>
+  <si>
+    <t>${contact_name} का स्वास्थ्य केंद्र</t>
   </si>
   <si>
     <t xml:space="preserve">Fasilitas Kesehatan ${contact_name} </t>
   </si>
   <si>
-    <t xml:space="preserve">Kituo cha afya cha  ${contact_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name}को स्वास्थ्य केन्द्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre de santé de ${contact_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name}'s Household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name} का क्षेत्र</t>
+    <t>Kituo cha afya cha  ${contact_name}</t>
+  </si>
+  <si>
+    <t>${contact_name}को स्वास्थ्य केन्द्र</t>
+  </si>
+  <si>
+    <t>Centre de santé de ${contact_name}</t>
+  </si>
+  <si>
+    <t>${contact_name}'s Household</t>
+  </si>
+  <si>
+    <t>${contact_name} का क्षेत्र</t>
   </si>
   <si>
     <t xml:space="preserve">Daerah ${contact_name} </t>
   </si>
   <si>
-    <t xml:space="preserve">Eneo ya  ${contact_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name}को क्षेत्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone de ${contact_name}</t>
+    <t>Eneo ya  ${contact_name}</t>
+  </si>
+  <si>
+    <t>${contact_name}को क्षेत्र</t>
+  </si>
+  <si>
+    <t>Zone de ${contact_name}</t>
   </si>
   <si>
     <t>translate_name_label</t>
@@ -1100,7 +1106,7 @@
     <t>default_language</t>
   </si>
   <si>
-    <t xml:space="preserve">New PLACE_NAME</t>
+    <t>New PLACE_NAME</t>
   </si>
   <si>
     <t>contact:PLACE_TYPE:create</t>
@@ -1110,37 +1116,46 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>select-contact type-person</t>
+  </si>
+  <si>
+    <t>columns-pack</t>
+  </si>
+  <si>
+    <t>columns</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
+      <sz val="11"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
-      <color indexed="64"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
-      <b/>
-      <color indexed="64"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="64"/>
       <name val="Arial"/>
-      <color indexed="64"/>
-      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1207,7 +1222,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="65"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -1221,74 +1235,74 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="3" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1299,295 +1313,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1790,51 +1524,52 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AR1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
-      <selection activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C2" sqref="C2"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="34"/>
-    <col customWidth="1" min="2" max="2" width="26"/>
-    <col customWidth="1" min="3" max="3" width="47.859999999999999"/>
-    <col customWidth="1" hidden="1" min="4" max="4" width="33.43"/>
-    <col customWidth="1" hidden="1" min="5" max="5" width="27.43"/>
-    <col customWidth="1" hidden="1" min="6" max="6" width="37.289999999999999"/>
-    <col customWidth="1" hidden="1" min="7" max="7" width="31.289999999999999"/>
-    <col customWidth="1" hidden="1" min="8" max="8" width="8.1400000000000006"/>
-    <col customWidth="1" hidden="1" min="9" max="9" width="16.710000000000001"/>
-    <col customWidth="1" min="10" max="10" width="8.1400000000000006"/>
-    <col customWidth="1" min="11" max="11" width="51.43"/>
-    <col customWidth="1" min="12" max="13" width="10.710000000000001"/>
-    <col customWidth="1" min="14" max="14" width="25.289999999999999"/>
-    <col customWidth="1" min="15" max="15" width="46.289999999999999"/>
-    <col customWidth="1" min="16" max="16" width="68.859999999999999"/>
-    <col customWidth="1" min="17" max="17" width="9.4299999999999997"/>
-    <col customWidth="1" min="18" max="18" width="33.43"/>
-    <col customWidth="1" min="19" max="19" width="36.289999999999999"/>
-    <col customWidth="1" min="20" max="23" width="13.57"/>
-    <col customWidth="1" min="24" max="24" width="7.71"/>
-    <col customWidth="1" min="25" max="25" width="8.7100000000000009"/>
-    <col customWidth="1" min="26" max="26" width="35.859999999999999"/>
-    <col customWidth="1" min="27" max="36" width="7.71"/>
-    <col customWidth="1" min="37" max="38" width="15.140000000000001"/>
-    <col customWidth="1" min="39" max="44" width="17.289999999999999"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="47.88671875" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" customWidth="1"/>
+    <col min="11" max="11" width="51.44140625" customWidth="1"/>
+    <col min="12" max="13" width="10.6640625" customWidth="1"/>
+    <col min="14" max="14" width="25.33203125" customWidth="1"/>
+    <col min="15" max="15" width="46.33203125" customWidth="1"/>
+    <col min="16" max="16" width="68.88671875" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" customWidth="1"/>
+    <col min="18" max="18" width="33.44140625" customWidth="1"/>
+    <col min="19" max="19" width="36.33203125" customWidth="1"/>
+    <col min="20" max="23" width="13.5546875" customWidth="1"/>
+    <col min="24" max="24" width="7.6640625" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" customWidth="1"/>
+    <col min="26" max="26" width="35.88671875" customWidth="1"/>
+    <col min="27" max="36" width="7.6640625" customWidth="1"/>
+    <col min="37" max="38" width="15.109375" customWidth="1"/>
+    <col min="39" max="44" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:44" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1926,7 +1661,7 @@
       <c r="AK1" s="8"/>
       <c r="AL1" s="8"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:44" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>26</v>
       </c>
@@ -1991,7 +1726,7 @@
       <c r="AQ2" s="10"/>
       <c r="AR2" s="10"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:44" ht="14.4">
       <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
@@ -2053,7 +1788,7 @@
       <c r="AQ3" s="10"/>
       <c r="AR3" s="10"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:44" ht="14.25" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>30</v>
       </c>
@@ -2117,7 +1852,7 @@
       <c r="AQ4" s="10"/>
       <c r="AR4" s="10"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:44" ht="14.25" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
@@ -2181,7 +1916,7 @@
       <c r="AQ5" s="10"/>
       <c r="AR5" s="10"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:44" ht="14.25" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>30</v>
       </c>
@@ -2245,7 +1980,7 @@
       <c r="AQ6" s="10"/>
       <c r="AR6" s="10"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:44" ht="14.4">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -2293,7 +2028,7 @@
       <c r="AQ7" s="10"/>
       <c r="AR7" s="10"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:44" ht="14.25" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
@@ -2341,7 +2076,7 @@
       <c r="AQ8" s="10"/>
       <c r="AR8" s="10"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:44" ht="14.25" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2381,7 +2116,7 @@
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:44" ht="14.25" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>26</v>
       </c>
@@ -2445,7 +2180,7 @@
       <c r="AQ10" s="16"/>
       <c r="AR10" s="16"/>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
+    <row r="11" spans="1:44" ht="13.5" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>39</v>
       </c>
@@ -2476,7 +2211,7 @@
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="16" t="s">
-        <v>48</v>
+        <v>360</v>
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
@@ -2511,40 +2246,40 @@
       <c r="AQ11" s="16"/>
       <c r="AR11" s="16"/>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
+    <row r="12" spans="1:44" ht="13.5" customHeight="1">
       <c r="A12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>52</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>54</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J12" s="16" t="s">
         <v>47</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>57</v>
+        <v>359</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
@@ -2579,7 +2314,7 @@
       <c r="AQ12" s="16"/>
       <c r="AR12" s="16"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:44" ht="14.4">
       <c r="A13" s="17" t="s">
         <v>30</v>
       </c>
@@ -2608,7 +2343,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
@@ -2643,12 +2378,12 @@
       <c r="AQ13" s="16"/>
       <c r="AR13" s="16"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:44" ht="14.25" customHeight="1">
       <c r="A14" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -2664,7 +2399,7 @@
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
@@ -2695,12 +2430,12 @@
       <c r="AQ14" s="16"/>
       <c r="AR14" s="16"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:44" ht="14.25" customHeight="1">
       <c r="A15" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>28</v>
@@ -2723,16 +2458,16 @@
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
@@ -2763,12 +2498,12 @@
       <c r="AQ15" s="16"/>
       <c r="AR15" s="16"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:44" ht="14.25" customHeight="1">
       <c r="A16" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="18"/>
@@ -2784,7 +2519,7 @@
       <c r="N16" s="16"/>
       <c r="O16" s="18"/>
       <c r="P16" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
@@ -2815,37 +2550,37 @@
       <c r="AQ16" s="16"/>
       <c r="AR16" s="16"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:44" ht="14.25" customHeight="1">
       <c r="A17" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J17" s="16" t="s">
         <v>47</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
@@ -2862,7 +2597,7 @@
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AA17" s="16"/>
       <c r="AB17" s="16"/>
@@ -2883,36 +2618,36 @@
       <c r="AQ17" s="16"/>
       <c r="AR17" s="16"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:44" ht="14.25" customHeight="1">
       <c r="A18" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="G18" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
@@ -2927,7 +2662,7 @@
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
       <c r="Y18" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Z18" s="16"/>
       <c r="AA18" s="16"/>
@@ -2949,12 +2684,12 @@
       <c r="AQ18" s="16"/>
       <c r="AR18" s="16"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:44" ht="14.25" customHeight="1">
       <c r="A19" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -2970,7 +2705,7 @@
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
@@ -3001,12 +2736,12 @@
       <c r="AQ19" s="16"/>
       <c r="AR19" s="16"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:44" ht="14.25" customHeight="1">
       <c r="A20" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>28</v>
@@ -3030,7 +2765,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
@@ -3045,7 +2780,7 @@
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
       <c r="Y20" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Z20" s="16"/>
       <c r="AA20" s="16"/>
@@ -3067,12 +2802,12 @@
       <c r="AQ20" s="16"/>
       <c r="AR20" s="16"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:44" ht="14.25" customHeight="1">
       <c r="A21" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -3088,7 +2823,7 @@
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="P21" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
@@ -3119,7 +2854,7 @@
       <c r="AQ21" s="16"/>
       <c r="AR21" s="16"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:44" ht="14.25" customHeight="1">
       <c r="A22" s="17" t="s">
         <v>36</v>
       </c>
@@ -3167,7 +2902,7 @@
       <c r="AQ22" s="16"/>
       <c r="AR22" s="16"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:44" ht="14.25" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -3207,35 +2942,35 @@
       <c r="AK23" s="8"/>
       <c r="AL23" s="8"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:44" ht="14.25" customHeight="1">
       <c r="A24" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="F24" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>91</v>
-      </c>
       <c r="G24" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L24" s="16" t="s">
         <v>38</v>
@@ -3273,12 +3008,12 @@
       <c r="AQ24" s="16"/>
       <c r="AR24" s="16"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:44" ht="14.25" customHeight="1">
       <c r="A25" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>28</v>
@@ -3315,7 +3050,7 @@
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
       <c r="Y25" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Z25" s="16"/>
       <c r="AA25" s="16"/>
@@ -3337,9 +3072,9 @@
       <c r="AQ25" s="16"/>
       <c r="AR25" s="16"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:44" ht="14.25" customHeight="1">
       <c r="A26" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>0</v>
@@ -3379,7 +3114,7 @@
       <c r="W26" s="16"/>
       <c r="X26" s="16"/>
       <c r="Y26" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Z26" s="16"/>
       <c r="AA26" s="16"/>
@@ -3401,15 +3136,15 @@
       <c r="AQ26" s="16"/>
       <c r="AR26" s="16"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:44" ht="14.25" customHeight="1">
       <c r="A27" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
@@ -3455,15 +3190,15 @@
       <c r="AQ27" s="19"/>
       <c r="AR27" s="19"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:44" ht="14.25" customHeight="1">
       <c r="A28" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
@@ -3509,9 +3244,9 @@
       <c r="AQ28" s="19"/>
       <c r="AR28" s="19"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:44" ht="14.25" customHeight="1">
       <c r="A29" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>1</v>
@@ -3526,13 +3261,13 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
       <c r="L29" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M29" s="19"/>
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
       <c r="P29" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
@@ -3563,12 +3298,12 @@
       <c r="AQ29" s="19"/>
       <c r="AR29" s="19"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:44" ht="14.25" customHeight="1">
       <c r="A30" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="18"/>
@@ -3586,7 +3321,7 @@
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
       <c r="P30" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
@@ -3617,12 +3352,12 @@
       <c r="AQ30" s="16"/>
       <c r="AR30" s="16"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:44" ht="14.25" customHeight="1">
       <c r="A31" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="18"/>
@@ -3638,7 +3373,7 @@
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q31" s="16"/>
       <c r="R31" s="16"/>
@@ -3669,12 +3404,12 @@
       <c r="AQ31" s="16"/>
       <c r="AR31" s="16"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:44" ht="14.25" customHeight="1">
       <c r="A32" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>28</v>
@@ -3731,15 +3466,15 @@
       <c r="AQ32" s="16"/>
       <c r="AR32" s="16"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:44" ht="14.25" customHeight="1">
       <c r="A33" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="16"/>
@@ -3751,20 +3486,20 @@
         <v>47</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
       <c r="N33" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P33" s="16"/>
       <c r="Q33" s="16"/>
       <c r="R33" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="S33" s="16"/>
       <c r="T33" s="16"/>
@@ -3793,15 +3528,15 @@
       <c r="AQ33" s="16"/>
       <c r="AR33" s="16"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:44" ht="14.25" customHeight="1">
       <c r="A34" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -3811,7 +3546,7 @@
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
@@ -3847,15 +3582,15 @@
       <c r="AQ34" s="16"/>
       <c r="AR34" s="16"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:44" ht="14.25" customHeight="1">
       <c r="A35" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="16"/>
@@ -3867,15 +3602,15 @@
         <v>47</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
       <c r="N35" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P35" s="16"/>
       <c r="Q35" s="16"/>
@@ -3907,15 +3642,15 @@
       <c r="AQ35" s="16"/>
       <c r="AR35" s="16"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:44" ht="14.25" customHeight="1">
       <c r="A36" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="16"/>
@@ -3925,15 +3660,15 @@
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
       <c r="N36" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
@@ -3965,15 +3700,15 @@
       <c r="AQ36" s="16"/>
       <c r="AR36" s="16"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:44" ht="14.25" customHeight="1">
       <c r="A37" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="16"/>
@@ -3984,7 +3719,7 @@
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
       <c r="L37" s="16" t="s">
-        <v>130</v>
+        <v>361</v>
       </c>
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
@@ -4019,12 +3754,12 @@
       <c r="AQ37" s="16"/>
       <c r="AR37" s="16"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:44" ht="14.25" customHeight="1">
       <c r="A38" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="18"/>
@@ -4040,7 +3775,7 @@
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
       <c r="P38" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
@@ -4071,12 +3806,12 @@
       <c r="AQ38" s="16"/>
       <c r="AR38" s="16"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:44" ht="14.25" customHeight="1">
       <c r="A39" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="18"/>
@@ -4092,7 +3827,7 @@
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
       <c r="P39" s="22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q39" s="16"/>
       <c r="R39" s="16"/>
@@ -4123,15 +3858,15 @@
       <c r="AQ39" s="16"/>
       <c r="AR39" s="16"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:44" ht="14.25" customHeight="1">
       <c r="A40" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="16"/>
@@ -4146,7 +3881,7 @@
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
       <c r="P40" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
@@ -4177,12 +3912,12 @@
       <c r="AQ40" s="16"/>
       <c r="AR40" s="16"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:44" ht="14.25" customHeight="1">
       <c r="A41" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="18"/>
@@ -4198,7 +3933,7 @@
       <c r="N41" s="16"/>
       <c r="O41" s="16"/>
       <c r="P41" s="23" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
@@ -4229,15 +3964,15 @@
       <c r="AQ41" s="16"/>
       <c r="AR41" s="16"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:44" ht="14.25" customHeight="1">
       <c r="A42" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="16"/>
@@ -4252,7 +3987,7 @@
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q42" s="16"/>
       <c r="R42" s="16"/>
@@ -4283,15 +4018,15 @@
       <c r="AQ42" s="16"/>
       <c r="AR42" s="16"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:44" ht="14.25" customHeight="1">
       <c r="A43" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="16"/>
@@ -4338,7 +4073,7 @@
       <c r="AQ43" s="16"/>
       <c r="AR43" s="16"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:44" ht="14.25" customHeight="1">
       <c r="A44" s="17" t="s">
         <v>36</v>
       </c>
@@ -4386,35 +4121,35 @@
       <c r="AQ44" s="16"/>
       <c r="AR44" s="16"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:44" ht="14.25" customHeight="1">
       <c r="A45" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="F45" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="G45" s="16" t="s">
         <v>147</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>151</v>
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J45" s="16"/>
       <c r="K45" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
@@ -4423,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P45" s="16"/>
       <c r="Q45" s="16"/>
@@ -4455,35 +4190,35 @@
       <c r="AQ45" s="16"/>
       <c r="AR45" s="16"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:44" ht="14.25" customHeight="1">
       <c r="A46" s="17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B46" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F46" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="G46" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>159</v>
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J46" s="16"/>
       <c r="K46" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
@@ -4492,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="O46" s="16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P46" s="16"/>
       <c r="Q46" s="16"/>
@@ -4524,40 +4259,40 @@
       <c r="AQ46" s="16"/>
       <c r="AR46" s="16"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:44" ht="14.25" customHeight="1">
       <c r="A47" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="F47" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>166</v>
-      </c>
       <c r="G47" s="16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="16" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J47" s="16" t="s">
         <v>47</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>130</v>
+        <v>361</v>
       </c>
       <c r="M47" s="16"/>
       <c r="N47" s="16"/>
@@ -4592,15 +4327,15 @@
       <c r="AQ47" s="16"/>
       <c r="AR47" s="16"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:44" ht="14.25" customHeight="1">
       <c r="A48" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
@@ -4610,7 +4345,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
       <c r="K48" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
@@ -4646,37 +4381,37 @@
       <c r="AQ48" s="19"/>
       <c r="AR48" s="19"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:44" ht="14.25" customHeight="1">
       <c r="A49" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="F49" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="G49" s="16" t="s">
         <v>172</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>176</v>
       </c>
       <c r="H49" s="16"/>
       <c r="I49" s="16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J49" s="16" t="s">
         <v>47</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
@@ -4712,37 +4447,37 @@
       <c r="AQ49" s="16"/>
       <c r="AR49" s="16"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:44" ht="14.25" customHeight="1">
       <c r="A50" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B50" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F50" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="G50" s="16" t="s">
         <v>179</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>183</v>
       </c>
       <c r="H50" s="16"/>
       <c r="I50" s="16" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J50" s="16" t="s">
         <v>47</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
@@ -4778,35 +4513,35 @@
       <c r="AQ50" s="16"/>
       <c r="AR50" s="16"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:44" ht="14.25" customHeight="1">
       <c r="A51" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B51" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="F51" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="G51" s="16" t="s">
         <v>187</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>191</v>
       </c>
       <c r="H51" s="16"/>
       <c r="I51" s="16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J51" s="16"/>
       <c r="K51" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
@@ -4842,7 +4577,7 @@
       <c r="AQ51" s="16"/>
       <c r="AR51" s="16"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:44" ht="14.25" customHeight="1">
       <c r="A52" s="17" t="s">
         <v>30</v>
       </c>
@@ -4850,30 +4585,30 @@
         <v>25</v>
       </c>
       <c r="C52" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G52" s="16" t="s">
         <v>193</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>197</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="16" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J52" s="16"/>
       <c r="K52" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L52" s="16" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
@@ -4908,12 +4643,12 @@
       <c r="AQ52" s="16"/>
       <c r="AR52" s="16"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:44" ht="14.25" customHeight="1">
       <c r="A53" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>28</v>
@@ -4927,7 +4662,7 @@
       <c r="J53" s="16"/>
       <c r="K53" s="16"/>
       <c r="L53" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
@@ -4962,12 +4697,12 @@
       <c r="AQ53" s="16"/>
       <c r="AR53" s="16"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:44" ht="14.25" customHeight="1">
       <c r="A54" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
@@ -4983,7 +4718,7 @@
       <c r="N54" s="16"/>
       <c r="O54" s="16"/>
       <c r="P54" s="16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q54" s="16"/>
       <c r="R54" s="16"/>
@@ -5014,12 +4749,12 @@
       <c r="AQ54" s="16"/>
       <c r="AR54" s="16"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:44" ht="14.25" customHeight="1">
       <c r="A55" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
@@ -5035,7 +4770,7 @@
       <c r="N55" s="16"/>
       <c r="O55" s="16"/>
       <c r="P55" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q55" s="16"/>
       <c r="R55" s="16"/>
@@ -5066,12 +4801,12 @@
       <c r="AQ55" s="16"/>
       <c r="AR55" s="16"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:44" ht="14.25" customHeight="1">
       <c r="A56" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
@@ -5087,7 +4822,7 @@
       <c r="N56" s="16"/>
       <c r="O56" s="16"/>
       <c r="P56" s="16" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q56" s="16"/>
       <c r="R56" s="16"/>
@@ -5118,7 +4853,7 @@
       <c r="AQ56" s="16"/>
       <c r="AR56" s="16"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:44" ht="14.25" customHeight="1">
       <c r="A57" s="17" t="s">
         <v>36</v>
       </c>
@@ -5166,7 +4901,7 @@
       <c r="AQ57" s="16"/>
       <c r="AR57" s="16"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:44" ht="14.25" customHeight="1">
       <c r="A58" s="17" t="s">
         <v>36</v>
       </c>
@@ -5214,7 +4949,7 @@
       <c r="AQ58" s="16"/>
       <c r="AR58" s="16"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:44" ht="14.25" customHeight="1">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -5254,12 +4989,12 @@
       <c r="AK59" s="8"/>
       <c r="AL59" s="8"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:44" ht="14.25" customHeight="1">
       <c r="A60" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>28</v>
@@ -5318,12 +5053,12 @@
       <c r="AQ60" s="16"/>
       <c r="AR60" s="16"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:44" ht="14.25" customHeight="1">
       <c r="A61" s="25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>28</v>
@@ -5360,7 +5095,7 @@
       <c r="W61" s="16"/>
       <c r="X61" s="16"/>
       <c r="Y61" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Z61" s="16"/>
       <c r="AA61" s="16"/>
@@ -5382,9 +5117,9 @@
       <c r="AQ61" s="16"/>
       <c r="AR61" s="16"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:44" ht="14.25" customHeight="1">
       <c r="A62" s="25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B62" s="17" t="s">
         <v>0</v>
@@ -5444,40 +5179,40 @@
       <c r="AQ62" s="16"/>
       <c r="AR62" s="16"/>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="1:44" ht="14.25" customHeight="1">
       <c r="A63" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="F63" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="G63" s="16" t="s">
         <v>208</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>212</v>
       </c>
       <c r="H63" s="16"/>
       <c r="I63" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J63" s="16" t="s">
         <v>47</v>
       </c>
       <c r="K63" s="16" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L63" s="16" t="s">
-        <v>48</v>
+        <v>360</v>
       </c>
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
@@ -5492,7 +5227,7 @@
       <c r="W63" s="16"/>
       <c r="X63" s="16"/>
       <c r="Y63" s="16" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Z63" s="16"/>
       <c r="AA63" s="16"/>
@@ -5514,31 +5249,31 @@
       <c r="AQ63" s="16"/>
       <c r="AR63" s="16"/>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:44" ht="14.25" customHeight="1">
       <c r="A64" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B64" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H64" s="16"/>
       <c r="I64" s="16" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J64" s="16" t="s">
         <v>47</v>
@@ -5549,7 +5284,7 @@
       <c r="N64" s="16"/>
       <c r="O64" s="23"/>
       <c r="P64" s="16" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q64" s="16"/>
       <c r="R64" s="16"/>
@@ -5580,31 +5315,31 @@
       <c r="AQ64" s="16"/>
       <c r="AR64" s="16"/>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="1:44" ht="14.25" customHeight="1">
       <c r="A65" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C65" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="G65" s="18" t="s">
         <v>187</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="G65" s="18" t="s">
-        <v>191</v>
       </c>
       <c r="H65" s="16"/>
       <c r="I65" s="16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
@@ -5642,15 +5377,15 @@
       <c r="AQ65" s="16"/>
       <c r="AR65" s="16"/>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="1:44" ht="14.25" customHeight="1">
       <c r="A66" s="26" t="s">
         <v>30</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D66" s="27"/>
       <c r="E66" s="27"/>
@@ -5694,7 +5429,7 @@
       <c r="AQ66" s="27"/>
       <c r="AR66" s="27"/>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="1:44" ht="14.25" customHeight="1">
       <c r="A67" s="17" t="s">
         <v>30</v>
       </c>
@@ -5702,28 +5437,28 @@
         <v>25</v>
       </c>
       <c r="C67" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G67" s="18" t="s">
         <v>193</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="G67" s="18" t="s">
-        <v>197</v>
       </c>
       <c r="H67" s="16"/>
       <c r="I67" s="16" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J67" s="16"/>
       <c r="K67" s="16"/>
       <c r="L67" s="16" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M67" s="16"/>
       <c r="N67" s="16"/>
@@ -5758,12 +5493,12 @@
       <c r="AQ67" s="16"/>
       <c r="AR67" s="16"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="1:44" ht="14.25" customHeight="1">
       <c r="A68" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
@@ -5779,7 +5514,7 @@
       <c r="N68" s="16"/>
       <c r="O68" s="16"/>
       <c r="P68" s="16" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q68" s="16"/>
       <c r="R68" s="16"/>
@@ -5810,12 +5545,12 @@
       <c r="AQ68" s="16"/>
       <c r="AR68" s="16"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="1:44" ht="14.25" customHeight="1">
       <c r="A69" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
@@ -5831,7 +5566,7 @@
       <c r="N69" s="16"/>
       <c r="O69" s="16"/>
       <c r="P69" s="16" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q69" s="16"/>
       <c r="R69" s="16"/>
@@ -5862,12 +5597,12 @@
       <c r="AQ69" s="16"/>
       <c r="AR69" s="16"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="1:44" ht="14.25" customHeight="1">
       <c r="A70" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>28</v>
@@ -5891,7 +5626,7 @@
       <c r="J70" s="16"/>
       <c r="K70" s="16"/>
       <c r="L70" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M70" s="16"/>
       <c r="N70" s="16"/>
@@ -5926,12 +5661,12 @@
       <c r="AQ70" s="16"/>
       <c r="AR70" s="16"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="1:44" ht="14.25" customHeight="1">
       <c r="A71" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
@@ -5947,7 +5682,7 @@
       <c r="N71" s="16"/>
       <c r="O71" s="16"/>
       <c r="P71" s="16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q71" s="16"/>
       <c r="R71" s="16"/>
@@ -5978,12 +5713,12 @@
       <c r="AQ71" s="16"/>
       <c r="AR71" s="16"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="1:44" ht="14.25" customHeight="1">
       <c r="A72" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
@@ -5999,7 +5734,7 @@
       <c r="N72" s="16"/>
       <c r="O72" s="16"/>
       <c r="P72" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="16"/>
@@ -6030,12 +5765,12 @@
       <c r="AQ72" s="16"/>
       <c r="AR72" s="16"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="1:44" ht="14.25" customHeight="1">
       <c r="A73" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
@@ -6051,7 +5786,7 @@
       <c r="N73" s="16"/>
       <c r="O73" s="16"/>
       <c r="P73" s="16" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q73" s="16"/>
       <c r="R73" s="16"/>
@@ -6082,7 +5817,7 @@
       <c r="AQ73" s="16"/>
       <c r="AR73" s="16"/>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="1:44" ht="14.25" customHeight="1">
       <c r="A74" s="17" t="s">
         <v>36</v>
       </c>
@@ -6130,7 +5865,7 @@
       <c r="AQ74" s="16"/>
       <c r="AR74" s="16"/>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="1:44" ht="14.25" customHeight="1">
       <c r="A75" s="17" t="s">
         <v>36</v>
       </c>
@@ -6178,11 +5913,11 @@
       <c r="AQ75" s="16"/>
       <c r="AR75" s="16"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="76" spans="1:44" ht="15.75" customHeight="1"/>
+    <row r="77" spans="1:44" ht="15.75" customHeight="1"/>
+    <row r="78" spans="1:44" ht="15.75" customHeight="1"/>
+    <row r="79" spans="1:44" ht="15.75" customHeight="1"/>
+    <row r="80" spans="1:44" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -7107,41 +6842,34 @@
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.140000000000001"/>
-    <col customWidth="1" min="2" max="2" width="14.43"/>
-    <col customWidth="1" min="3" max="3" width="29"/>
-    <col customWidth="1" min="4" max="4" width="36.289999999999999"/>
-    <col customWidth="1" min="5" max="5" width="27.289999999999999"/>
-    <col customWidth="1" min="6" max="7" width="24.710000000000001"/>
-    <col customWidth="1" min="8" max="8" width="7.71"/>
-    <col customWidth="1" min="9" max="9" width="14.289999999999999"/>
-    <col customWidth="1" min="10" max="13" width="7.71"/>
-    <col customWidth="1" min="14" max="26" width="15.140000000000001"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="13" width="7.6640625" customWidth="1"/>
+    <col min="14" max="26" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>1</v>
@@ -7185,31 +6913,31 @@
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="G2" s="32" t="s">
         <v>228</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>232</v>
       </c>
       <c r="H2" s="33"/>
       <c r="I2" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -7229,31 +6957,31 @@
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="29" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F3" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="G3" s="32" t="s">
         <v>235</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>239</v>
       </c>
       <c r="H3" s="33"/>
       <c r="I3" s="19" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -7273,31 +7001,31 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="F4" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="G4" s="32" t="s">
         <v>243</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>247</v>
       </c>
       <c r="H4" s="33"/>
       <c r="I4" s="19" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -7317,31 +7045,31 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="G5" s="32" t="s">
         <v>250</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>254</v>
       </c>
       <c r="H5" s="33"/>
       <c r="I5" s="19" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -7361,31 +7089,31 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B6" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="G6" s="32" t="s">
         <v>257</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>261</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="19" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -7405,31 +7133,31 @@
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B7" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="G7" s="32" t="s">
         <v>264</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>268</v>
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="19" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -7449,31 +7177,31 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B8" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="F8" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="G8" s="32" t="s">
         <v>271</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>275</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="19" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -7493,15 +7221,15 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="35"/>
@@ -7527,31 +7255,31 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="F10" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="G10" s="32" t="s">
         <v>282</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>285</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>286</v>
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="19" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -7571,31 +7299,31 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B11" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="G11" s="32" t="s">
         <v>289</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>293</v>
       </c>
       <c r="H11" s="33"/>
       <c r="I11" s="19" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -7615,31 +7343,31 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="F12" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="G12" s="32" t="s">
         <v>296</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>300</v>
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="19" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -7659,31 +7387,31 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B13" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="F13" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>305</v>
-      </c>
       <c r="G13" s="32" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="19" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -7703,31 +7431,31 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="29" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -7747,31 +7475,31 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="C15" s="29" t="s">
+      <c r="F15" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="G15" s="32" t="s">
         <v>309</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>313</v>
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="19" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -7791,31 +7519,31 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B16" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="F16" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="G16" s="32" t="s">
         <v>316</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>320</v>
       </c>
       <c r="H16" s="33"/>
       <c r="I16" s="19" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -7835,31 +7563,31 @@
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:26" ht="14.25" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B17" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="F17" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="G17" s="32" t="s">
         <v>323</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>327</v>
       </c>
       <c r="H17" s="33"/>
       <c r="I17" s="19" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -7879,31 +7607,31 @@
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:26" ht="14.25" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B18" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="F18" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="C18" s="37" t="s">
-        <v>330</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>333</v>
-      </c>
       <c r="G18" s="32" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="19" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -7923,31 +7651,31 @@
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:26" ht="14.25" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C19" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="G19" s="32" t="s">
         <v>335</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>337</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>339</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="19" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -7967,31 +7695,31 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:26" ht="14.25" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C20" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="G20" s="32" t="s">
         <v>341</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>345</v>
       </c>
       <c r="H20" s="33"/>
       <c r="I20" s="19" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -8011,31 +7739,31 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:26" ht="14.25" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C21" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="G21" s="38" t="s">
         <v>347</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>348</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>350</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>351</v>
       </c>
       <c r="H21" s="33"/>
       <c r="I21" s="19" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -8055,31 +7783,31 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:26" ht="14.25" customHeight="1">
       <c r="A22" s="39" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="19" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -8099,16 +7827,16 @@
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -9076,51 +8804,44 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.140000000000001"/>
-    <col customWidth="1" min="2" max="2" width="12.710000000000001"/>
-    <col customWidth="1" min="3" max="3" width="19"/>
-    <col customWidth="1" min="4" max="4" width="5.71"/>
-    <col customWidth="1" min="5" max="5" width="14.289999999999999"/>
-    <col customWidth="1" min="6" max="6" width="34"/>
-    <col customWidth="1" min="7" max="14" width="7.71"/>
-    <col customWidth="1" min="15" max="25" width="15.140000000000001"/>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="25" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:25" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="8"/>
@@ -9143,22 +8864,22 @@
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:25" ht="14.25" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C2" s="40" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-02-25 15-16</v>
+        <v>2025-05-01 23-02</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -9181,7 +8902,7 @@
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:25" ht="14.25" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -9208,7 +8929,7 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:25" ht="14.25" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -9235,7 +8956,7 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:25" ht="14.25" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -9262,7 +8983,7 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:25" ht="14.25" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -9289,7 +9010,7 @@
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:25" ht="14.25" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -9316,7 +9037,7 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:25" ht="14.25" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -9343,7 +9064,7 @@
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:25" ht="14.25" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -9370,7 +9091,7 @@
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:25" ht="14.25" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -9397,7 +9118,7 @@
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:25" ht="14.25" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -9424,7 +9145,7 @@
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:25" ht="14.25" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -9451,7 +9172,7 @@
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:25" ht="14.25" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -9478,7 +9199,7 @@
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:25" ht="14.25" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -9505,7 +9226,7 @@
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:25" ht="14.25" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -9532,7 +9253,7 @@
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:25" ht="14.25" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -9559,7 +9280,7 @@
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:25" ht="14.25" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -9586,7 +9307,7 @@
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:25" ht="14.25" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -9613,7 +9334,7 @@
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:25" ht="14.25" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -9640,7 +9361,7 @@
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:25" ht="14.25" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -9667,7 +9388,7 @@
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:25" ht="14.25" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -9694,7 +9415,7 @@
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -9721,7 +9442,7 @@
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -9748,7 +9469,7 @@
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -9775,7 +9496,7 @@
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -9802,7 +9523,7 @@
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -9829,7 +9550,7 @@
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -9856,7 +9577,7 @@
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -9883,7 +9604,7 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -9910,7 +9631,7 @@
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -9937,7 +9658,7 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -9964,7 +9685,7 @@
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -9991,7 +9712,7 @@
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -10018,7 +9739,7 @@
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -10045,7 +9766,7 @@
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -10072,7 +9793,7 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -10099,7 +9820,7 @@
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:25" ht="15.75" customHeight="1">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -10126,7 +9847,7 @@
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -10153,7 +9874,7 @@
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -10180,7 +9901,7 @@
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -10207,7 +9928,7 @@
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -10234,7 +9955,7 @@
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -10261,7 +9982,7 @@
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -10288,7 +10009,7 @@
       <c r="X43" s="8"/>
       <c r="Y43" s="8"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -10315,7 +10036,7 @@
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -10342,7 +10063,7 @@
       <c r="X45" s="8"/>
       <c r="Y45" s="8"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -10369,7 +10090,7 @@
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -10396,7 +10117,7 @@
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -10423,7 +10144,7 @@
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -10450,7 +10171,7 @@
       <c r="X49" s="8"/>
       <c r="Y49" s="8"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -10477,7 +10198,7 @@
       <c r="X50" s="8"/>
       <c r="Y50" s="8"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -10504,7 +10225,7 @@
       <c r="X51" s="8"/>
       <c r="Y51" s="8"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -10531,7 +10252,7 @@
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -10558,7 +10279,7 @@
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -10585,7 +10306,7 @@
       <c r="X54" s="8"/>
       <c r="Y54" s="8"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -10612,7 +10333,7 @@
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -10639,7 +10360,7 @@
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -10666,7 +10387,7 @@
       <c r="X57" s="8"/>
       <c r="Y57" s="8"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -10693,7 +10414,7 @@
       <c r="X58" s="8"/>
       <c r="Y58" s="8"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -10720,7 +10441,7 @@
       <c r="X59" s="8"/>
       <c r="Y59" s="8"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -10747,7 +10468,7 @@
       <c r="X60" s="8"/>
       <c r="Y60" s="8"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -10774,7 +10495,7 @@
       <c r="X61" s="8"/>
       <c r="Y61" s="8"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -10801,7 +10522,7 @@
       <c r="X62" s="8"/>
       <c r="Y62" s="8"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -10828,7 +10549,7 @@
       <c r="X63" s="8"/>
       <c r="Y63" s="8"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -10855,7 +10576,7 @@
       <c r="X64" s="8"/>
       <c r="Y64" s="8"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -10882,7 +10603,7 @@
       <c r="X65" s="8"/>
       <c r="Y65" s="8"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -10909,7 +10630,7 @@
       <c r="X66" s="8"/>
       <c r="Y66" s="8"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -10936,7 +10657,7 @@
       <c r="X67" s="8"/>
       <c r="Y67" s="8"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -10963,7 +10684,7 @@
       <c r="X68" s="8"/>
       <c r="Y68" s="8"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -10990,7 +10711,7 @@
       <c r="X69" s="8"/>
       <c r="Y69" s="8"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -11017,7 +10738,7 @@
       <c r="X70" s="8"/>
       <c r="Y70" s="8"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -11044,7 +10765,7 @@
       <c r="X71" s="8"/>
       <c r="Y71" s="8"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -11071,7 +10792,7 @@
       <c r="X72" s="8"/>
       <c r="Y72" s="8"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -11098,7 +10819,7 @@
       <c r="X73" s="8"/>
       <c r="Y73" s="8"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -11125,7 +10846,7 @@
       <c r="X74" s="8"/>
       <c r="Y74" s="8"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -11152,7 +10873,7 @@
       <c r="X75" s="8"/>
       <c r="Y75" s="8"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -11179,7 +10900,7 @@
       <c r="X76" s="8"/>
       <c r="Y76" s="8"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -11206,7 +10927,7 @@
       <c r="X77" s="8"/>
       <c r="Y77" s="8"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -11233,7 +10954,7 @@
       <c r="X78" s="8"/>
       <c r="Y78" s="8"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:25" ht="15.75" customHeight="1">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -11260,7 +10981,7 @@
       <c r="X79" s="8"/>
       <c r="Y79" s="8"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:25" ht="15.75" customHeight="1">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -11287,7 +11008,7 @@
       <c r="X80" s="8"/>
       <c r="Y80" s="8"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -11314,7 +11035,7 @@
       <c r="X81" s="8"/>
       <c r="Y81" s="8"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:25" ht="15.75" customHeight="1">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -11341,7 +11062,7 @@
       <c r="X82" s="8"/>
       <c r="Y82" s="8"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -11368,7 +11089,7 @@
       <c r="X83" s="8"/>
       <c r="Y83" s="8"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -11395,7 +11116,7 @@
       <c r="X84" s="8"/>
       <c r="Y84" s="8"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -11422,7 +11143,7 @@
       <c r="X85" s="8"/>
       <c r="Y85" s="8"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -11449,7 +11170,7 @@
       <c r="X86" s="8"/>
       <c r="Y86" s="8"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:25" ht="15.75" customHeight="1">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -11476,7 +11197,7 @@
       <c r="X87" s="8"/>
       <c r="Y87" s="8"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -11503,7 +11224,7 @@
       <c r="X88" s="8"/>
       <c r="Y88" s="8"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -11530,7 +11251,7 @@
       <c r="X89" s="8"/>
       <c r="Y89" s="8"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:25" ht="15.75" customHeight="1">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -11557,7 +11278,7 @@
       <c r="X90" s="8"/>
       <c r="Y90" s="8"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:25" ht="15.75" customHeight="1">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -11584,7 +11305,7 @@
       <c r="X91" s="8"/>
       <c r="Y91" s="8"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:25" ht="15.75" customHeight="1">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -11611,7 +11332,7 @@
       <c r="X92" s="8"/>
       <c r="Y92" s="8"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:25" ht="15.75" customHeight="1">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -11638,7 +11359,7 @@
       <c r="X93" s="8"/>
       <c r="Y93" s="8"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -11665,7 +11386,7 @@
       <c r="X94" s="8"/>
       <c r="Y94" s="8"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:25" ht="15.75" customHeight="1">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -11692,7 +11413,7 @@
       <c r="X95" s="8"/>
       <c r="Y95" s="8"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -11719,7 +11440,7 @@
       <c r="X96" s="8"/>
       <c r="Y96" s="8"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -11746,7 +11467,7 @@
       <c r="X97" s="8"/>
       <c r="Y97" s="8"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:25" ht="15.75" customHeight="1">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -11773,7 +11494,7 @@
       <c r="X98" s="8"/>
       <c r="Y98" s="8"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:25" ht="15.75" customHeight="1">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -11800,7 +11521,7 @@
       <c r="X99" s="8"/>
       <c r="Y99" s="8"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -11827,7 +11548,7 @@
       <c r="X100" s="8"/>
       <c r="Y100" s="8"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -11854,7 +11575,7 @@
       <c r="X101" s="8"/>
       <c r="Y101" s="8"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -11881,7 +11602,7 @@
       <c r="X102" s="8"/>
       <c r="Y102" s="8"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -11908,7 +11629,7 @@
       <c r="X103" s="8"/>
       <c r="Y103" s="8"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:25" ht="15.75" customHeight="1">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -11935,7 +11656,7 @@
       <c r="X104" s="8"/>
       <c r="Y104" s="8"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -11962,7 +11683,7 @@
       <c r="X105" s="8"/>
       <c r="Y105" s="8"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:25" ht="15.75" customHeight="1">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -11989,7 +11710,7 @@
       <c r="X106" s="8"/>
       <c r="Y106" s="8"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:25" ht="15.75" customHeight="1">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -12016,7 +11737,7 @@
       <c r="X107" s="8"/>
       <c r="Y107" s="8"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:25" ht="15.75" customHeight="1">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -12043,7 +11764,7 @@
       <c r="X108" s="8"/>
       <c r="Y108" s="8"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:25" ht="15.75" customHeight="1">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -12070,7 +11791,7 @@
       <c r="X109" s="8"/>
       <c r="Y109" s="8"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:25" ht="15.75" customHeight="1">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -12097,7 +11818,7 @@
       <c r="X110" s="8"/>
       <c r="Y110" s="8"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -12124,7 +11845,7 @@
       <c r="X111" s="8"/>
       <c r="Y111" s="8"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:25" ht="15.75" customHeight="1">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -12151,7 +11872,7 @@
       <c r="X112" s="8"/>
       <c r="Y112" s="8"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:25" ht="15.75" customHeight="1">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -12178,7 +11899,7 @@
       <c r="X113" s="8"/>
       <c r="Y113" s="8"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:25" ht="15.75" customHeight="1">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -12205,7 +11926,7 @@
       <c r="X114" s="8"/>
       <c r="Y114" s="8"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:25" ht="15.75" customHeight="1">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -12232,7 +11953,7 @@
       <c r="X115" s="8"/>
       <c r="Y115" s="8"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:25" ht="15.75" customHeight="1">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -12259,7 +11980,7 @@
       <c r="X116" s="8"/>
       <c r="Y116" s="8"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:25" ht="15.75" customHeight="1">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -12286,7 +12007,7 @@
       <c r="X117" s="8"/>
       <c r="Y117" s="8"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:25" ht="15.75" customHeight="1">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -12313,7 +12034,7 @@
       <c r="X118" s="8"/>
       <c r="Y118" s="8"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:25" ht="15.75" customHeight="1">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -12340,7 +12061,7 @@
       <c r="X119" s="8"/>
       <c r="Y119" s="8"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:25" ht="15.75" customHeight="1">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -12367,7 +12088,7 @@
       <c r="X120" s="8"/>
       <c r="Y120" s="8"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:25" ht="15.75" customHeight="1">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -12394,7 +12115,7 @@
       <c r="X121" s="8"/>
       <c r="Y121" s="8"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:25" ht="15.75" customHeight="1">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -12421,7 +12142,7 @@
       <c r="X122" s="8"/>
       <c r="Y122" s="8"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:25" ht="15.75" customHeight="1">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -12448,7 +12169,7 @@
       <c r="X123" s="8"/>
       <c r="Y123" s="8"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:25" ht="15.75" customHeight="1">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -12475,7 +12196,7 @@
       <c r="X124" s="8"/>
       <c r="Y124" s="8"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:25" ht="15.75" customHeight="1">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -12502,7 +12223,7 @@
       <c r="X125" s="8"/>
       <c r="Y125" s="8"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:25" ht="15.75" customHeight="1">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -12529,7 +12250,7 @@
       <c r="X126" s="8"/>
       <c r="Y126" s="8"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -12556,7 +12277,7 @@
       <c r="X127" s="8"/>
       <c r="Y127" s="8"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -12583,7 +12304,7 @@
       <c r="X128" s="8"/>
       <c r="Y128" s="8"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -12610,7 +12331,7 @@
       <c r="X129" s="8"/>
       <c r="Y129" s="8"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -12637,7 +12358,7 @@
       <c r="X130" s="8"/>
       <c r="Y130" s="8"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -12664,7 +12385,7 @@
       <c r="X131" s="8"/>
       <c r="Y131" s="8"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -12691,7 +12412,7 @@
       <c r="X132" s="8"/>
       <c r="Y132" s="8"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -12718,7 +12439,7 @@
       <c r="X133" s="8"/>
       <c r="Y133" s="8"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -12745,7 +12466,7 @@
       <c r="X134" s="8"/>
       <c r="Y134" s="8"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -12772,7 +12493,7 @@
       <c r="X135" s="8"/>
       <c r="Y135" s="8"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -12799,7 +12520,7 @@
       <c r="X136" s="8"/>
       <c r="Y136" s="8"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -12826,7 +12547,7 @@
       <c r="X137" s="8"/>
       <c r="Y137" s="8"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -12853,7 +12574,7 @@
       <c r="X138" s="8"/>
       <c r="Y138" s="8"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -12880,7 +12601,7 @@
       <c r="X139" s="8"/>
       <c r="Y139" s="8"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -12907,7 +12628,7 @@
       <c r="X140" s="8"/>
       <c r="Y140" s="8"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -12934,7 +12655,7 @@
       <c r="X141" s="8"/>
       <c r="Y141" s="8"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -12961,7 +12682,7 @@
       <c r="X142" s="8"/>
       <c r="Y142" s="8"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -12988,7 +12709,7 @@
       <c r="X143" s="8"/>
       <c r="Y143" s="8"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -13015,7 +12736,7 @@
       <c r="X144" s="8"/>
       <c r="Y144" s="8"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:25" ht="15.75" customHeight="1">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -13042,7 +12763,7 @@
       <c r="X145" s="8"/>
       <c r="Y145" s="8"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:25" ht="15.75" customHeight="1">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -13069,7 +12790,7 @@
       <c r="X146" s="8"/>
       <c r="Y146" s="8"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -13096,7 +12817,7 @@
       <c r="X147" s="8"/>
       <c r="Y147" s="8"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -13123,7 +12844,7 @@
       <c r="X148" s="8"/>
       <c r="Y148" s="8"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:25" ht="15.75" customHeight="1">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -13150,7 +12871,7 @@
       <c r="X149" s="8"/>
       <c r="Y149" s="8"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:25" ht="15.75" customHeight="1">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -13177,7 +12898,7 @@
       <c r="X150" s="8"/>
       <c r="Y150" s="8"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:25" ht="15.75" customHeight="1">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -13204,7 +12925,7 @@
       <c r="X151" s="8"/>
       <c r="Y151" s="8"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -13231,7 +12952,7 @@
       <c r="X152" s="8"/>
       <c r="Y152" s="8"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -13258,7 +12979,7 @@
       <c r="X153" s="8"/>
       <c r="Y153" s="8"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:25" ht="15.75" customHeight="1">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -13285,7 +13006,7 @@
       <c r="X154" s="8"/>
       <c r="Y154" s="8"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:25" ht="15.75" customHeight="1">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -13312,7 +13033,7 @@
       <c r="X155" s="8"/>
       <c r="Y155" s="8"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:25" ht="15.75" customHeight="1">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -13339,7 +13060,7 @@
       <c r="X156" s="8"/>
       <c r="Y156" s="8"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:25" ht="15.75" customHeight="1">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -13366,7 +13087,7 @@
       <c r="X157" s="8"/>
       <c r="Y157" s="8"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:25" ht="15.75" customHeight="1">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -13393,7 +13114,7 @@
       <c r="X158" s="8"/>
       <c r="Y158" s="8"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:25" ht="15.75" customHeight="1">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -13420,7 +13141,7 @@
       <c r="X159" s="8"/>
       <c r="Y159" s="8"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:25" ht="15.75" customHeight="1">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -13447,7 +13168,7 @@
       <c r="X160" s="8"/>
       <c r="Y160" s="8"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:25" ht="15.75" customHeight="1">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -13474,7 +13195,7 @@
       <c r="X161" s="8"/>
       <c r="Y161" s="8"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:25" ht="15.75" customHeight="1">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -13501,7 +13222,7 @@
       <c r="X162" s="8"/>
       <c r="Y162" s="8"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:25" ht="15.75" customHeight="1">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -13528,7 +13249,7 @@
       <c r="X163" s="8"/>
       <c r="Y163" s="8"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:25" ht="15.75" customHeight="1">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -13555,7 +13276,7 @@
       <c r="X164" s="8"/>
       <c r="Y164" s="8"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:25" ht="15.75" customHeight="1">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -13582,7 +13303,7 @@
       <c r="X165" s="8"/>
       <c r="Y165" s="8"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:25" ht="15.75" customHeight="1">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -13609,7 +13330,7 @@
       <c r="X166" s="8"/>
       <c r="Y166" s="8"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:25" ht="15.75" customHeight="1">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -13636,7 +13357,7 @@
       <c r="X167" s="8"/>
       <c r="Y167" s="8"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:25" ht="15.75" customHeight="1">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -13663,7 +13384,7 @@
       <c r="X168" s="8"/>
       <c r="Y168" s="8"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:25" ht="15.75" customHeight="1">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -13690,7 +13411,7 @@
       <c r="X169" s="8"/>
       <c r="Y169" s="8"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:25" ht="15.75" customHeight="1">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -13717,7 +13438,7 @@
       <c r="X170" s="8"/>
       <c r="Y170" s="8"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:25" ht="15.75" customHeight="1">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -13744,7 +13465,7 @@
       <c r="X171" s="8"/>
       <c r="Y171" s="8"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:25" ht="15.75" customHeight="1">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -13771,7 +13492,7 @@
       <c r="X172" s="8"/>
       <c r="Y172" s="8"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:25" ht="15.75" customHeight="1">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -13798,7 +13519,7 @@
       <c r="X173" s="8"/>
       <c r="Y173" s="8"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:25" ht="15.75" customHeight="1">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -13825,7 +13546,7 @@
       <c r="X174" s="8"/>
       <c r="Y174" s="8"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:25" ht="15.75" customHeight="1">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -13852,7 +13573,7 @@
       <c r="X175" s="8"/>
       <c r="Y175" s="8"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:25" ht="15.75" customHeight="1">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -13879,7 +13600,7 @@
       <c r="X176" s="8"/>
       <c r="Y176" s="8"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:25" ht="15.75" customHeight="1">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -13906,7 +13627,7 @@
       <c r="X177" s="8"/>
       <c r="Y177" s="8"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:25" ht="15.75" customHeight="1">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -13933,7 +13654,7 @@
       <c r="X178" s="8"/>
       <c r="Y178" s="8"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:25" ht="15.75" customHeight="1">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -13960,7 +13681,7 @@
       <c r="X179" s="8"/>
       <c r="Y179" s="8"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:25" ht="15.75" customHeight="1">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -13987,7 +13708,7 @@
       <c r="X180" s="8"/>
       <c r="Y180" s="8"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:25" ht="15.75" customHeight="1">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -14014,7 +13735,7 @@
       <c r="X181" s="8"/>
       <c r="Y181" s="8"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:25" ht="15.75" customHeight="1">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -14041,7 +13762,7 @@
       <c r="X182" s="8"/>
       <c r="Y182" s="8"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:25" ht="15.75" customHeight="1">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -14068,7 +13789,7 @@
       <c r="X183" s="8"/>
       <c r="Y183" s="8"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:25" ht="15.75" customHeight="1">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -14095,7 +13816,7 @@
       <c r="X184" s="8"/>
       <c r="Y184" s="8"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:25" ht="15.75" customHeight="1">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -14122,7 +13843,7 @@
       <c r="X185" s="8"/>
       <c r="Y185" s="8"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:25" ht="15.75" customHeight="1">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -14149,7 +13870,7 @@
       <c r="X186" s="8"/>
       <c r="Y186" s="8"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:25" ht="15.75" customHeight="1">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -14176,7 +13897,7 @@
       <c r="X187" s="8"/>
       <c r="Y187" s="8"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:25" ht="15.75" customHeight="1">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -14203,7 +13924,7 @@
       <c r="X188" s="8"/>
       <c r="Y188" s="8"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:25" ht="15.75" customHeight="1">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -14230,7 +13951,7 @@
       <c r="X189" s="8"/>
       <c r="Y189" s="8"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:25" ht="15.75" customHeight="1">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -14257,7 +13978,7 @@
       <c r="X190" s="8"/>
       <c r="Y190" s="8"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:25" ht="15.75" customHeight="1">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -14284,7 +14005,7 @@
       <c r="X191" s="8"/>
       <c r="Y191" s="8"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:25" ht="15.75" customHeight="1">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -14311,7 +14032,7 @@
       <c r="X192" s="8"/>
       <c r="Y192" s="8"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:25" ht="15.75" customHeight="1">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -14338,7 +14059,7 @@
       <c r="X193" s="8"/>
       <c r="Y193" s="8"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:25" ht="15.75" customHeight="1">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -14365,7 +14086,7 @@
       <c r="X194" s="8"/>
       <c r="Y194" s="8"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:25" ht="15.75" customHeight="1">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -14392,7 +14113,7 @@
       <c r="X195" s="8"/>
       <c r="Y195" s="8"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:25" ht="15.75" customHeight="1">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -14419,7 +14140,7 @@
       <c r="X196" s="8"/>
       <c r="Y196" s="8"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:25" ht="15.75" customHeight="1">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -14446,7 +14167,7 @@
       <c r="X197" s="8"/>
       <c r="Y197" s="8"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:25" ht="15.75" customHeight="1">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -14473,7 +14194,7 @@
       <c r="X198" s="8"/>
       <c r="Y198" s="8"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:25" ht="15.75" customHeight="1">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -14500,7 +14221,7 @@
       <c r="X199" s="8"/>
       <c r="Y199" s="8"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:25" ht="15.75" customHeight="1">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -14527,7 +14248,7 @@
       <c r="X200" s="8"/>
       <c r="Y200" s="8"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:25" ht="15.75" customHeight="1">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -14554,7 +14275,7 @@
       <c r="X201" s="8"/>
       <c r="Y201" s="8"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:25" ht="15.75" customHeight="1">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -14581,7 +14302,7 @@
       <c r="X202" s="8"/>
       <c r="Y202" s="8"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:25" ht="15.75" customHeight="1">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -14608,7 +14329,7 @@
       <c r="X203" s="8"/>
       <c r="Y203" s="8"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:25" ht="15.75" customHeight="1">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -14635,7 +14356,7 @@
       <c r="X204" s="8"/>
       <c r="Y204" s="8"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:25" ht="15.75" customHeight="1">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -14662,7 +14383,7 @@
       <c r="X205" s="8"/>
       <c r="Y205" s="8"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:25" ht="15.75" customHeight="1">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -14689,7 +14410,7 @@
       <c r="X206" s="8"/>
       <c r="Y206" s="8"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:25" ht="15.75" customHeight="1">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -14716,7 +14437,7 @@
       <c r="X207" s="8"/>
       <c r="Y207" s="8"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:25" ht="15.75" customHeight="1">
       <c r="A208" s="8"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -14743,7 +14464,7 @@
       <c r="X208" s="8"/>
       <c r="Y208" s="8"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:25" ht="15.75" customHeight="1">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -14770,7 +14491,7 @@
       <c r="X209" s="8"/>
       <c r="Y209" s="8"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:25" ht="15.75" customHeight="1">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -14797,7 +14518,7 @@
       <c r="X210" s="8"/>
       <c r="Y210" s="8"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:25" ht="15.75" customHeight="1">
       <c r="A211" s="8"/>
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
@@ -14824,7 +14545,7 @@
       <c r="X211" s="8"/>
       <c r="Y211" s="8"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:25" ht="15.75" customHeight="1">
       <c r="A212" s="8"/>
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
@@ -14851,7 +14572,7 @@
       <c r="X212" s="8"/>
       <c r="Y212" s="8"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:25" ht="15.75" customHeight="1">
       <c r="A213" s="8"/>
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
@@ -14878,7 +14599,7 @@
       <c r="X213" s="8"/>
       <c r="Y213" s="8"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:25" ht="15.75" customHeight="1">
       <c r="A214" s="8"/>
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
@@ -14905,7 +14626,7 @@
       <c r="X214" s="8"/>
       <c r="Y214" s="8"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:25" ht="15.75" customHeight="1">
       <c r="A215" s="8"/>
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
@@ -14932,7 +14653,7 @@
       <c r="X215" s="8"/>
       <c r="Y215" s="8"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:25" ht="15.75" customHeight="1">
       <c r="A216" s="8"/>
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
@@ -14959,7 +14680,7 @@
       <c r="X216" s="8"/>
       <c r="Y216" s="8"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:25" ht="15.75" customHeight="1">
       <c r="A217" s="8"/>
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
@@ -14986,7 +14707,7 @@
       <c r="X217" s="8"/>
       <c r="Y217" s="8"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:25" ht="15.75" customHeight="1">
       <c r="A218" s="8"/>
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
@@ -15013,7 +14734,7 @@
       <c r="X218" s="8"/>
       <c r="Y218" s="8"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:25" ht="15.75" customHeight="1">
       <c r="A219" s="8"/>
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
@@ -15040,7 +14761,7 @@
       <c r="X219" s="8"/>
       <c r="Y219" s="8"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:25" ht="15.75" customHeight="1">
       <c r="A220" s="8"/>
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
@@ -15067,10 +14788,10 @@
       <c r="X220" s="8"/>
       <c r="Y220" s="8"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:25" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:25" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:25" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:25" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -15848,9 +15569,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
 </worksheet>
 </file>